--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
   <si>
     <t>ENTREGABLES POR HITERACIONES</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Documento de diseño técnico de la arquitectura de la IA</t>
   </si>
   <si>
-    <t>V I</t>
-  </si>
-  <si>
     <t>Gestión de estados de la IA con Máquinas de Estados</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Control del player por motor de físicas 2D, dynamic o kinematic</t>
   </si>
   <si>
-    <t>V II</t>
-  </si>
-  <si>
     <t>Uso de trazado de rayos y otros tests de las físicas</t>
   </si>
   <si>
@@ -192,13 +186,217 @@
   </si>
   <si>
     <t>NM</t>
+  </si>
+  <si>
+    <t>Sistema de búsqueda de caminos y control (Pathplanning/following)</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Comunicación simulada básica entre NPCs (Blackboard)</t>
+  </si>
+  <si>
+    <t>Sistema de memoria de estado y reacción para NPCs</t>
+  </si>
+  <si>
+    <t>Power-ups y elementos adicionales</t>
+  </si>
+  <si>
+    <t>Integración de librería para GUI</t>
+  </si>
+  <si>
+    <t>Revisar especificación proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reestimar proyecto. </t>
+  </si>
+  <si>
+    <t>Detallar plan iteraciones del mes de Enero. Creación Subtareas y precedencias en Project</t>
+  </si>
+  <si>
+    <t>Detallar plan iteraciones del mes de Enero. Asignar recursos a las tareas en Project.</t>
+  </si>
+  <si>
+    <t>Comparar la planificación prevista y real en Project hito 2.</t>
+  </si>
+  <si>
+    <t>Confeccionar  Informes de iteración e informe resumen de Hito 2</t>
+  </si>
+  <si>
+    <t>Gestor de recursos: Parser de objetos en multiples formatos, salida en modo texto</t>
+  </si>
+  <si>
+    <t>HUD / Imágenes menús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorporación de open data, API's, y otras fuentes heterogéneas </t>
+  </si>
+  <si>
+    <t>HITO 3</t>
+  </si>
+  <si>
+    <t>Sistema de Waypoints para pathfinding continuo</t>
+  </si>
+  <si>
+    <t>Sistema de depuración visual in-game de la IA</t>
+  </si>
+  <si>
+    <t>Gestión de recursos de IA con Level-of-Detail (LoD)</t>
+  </si>
+  <si>
+    <t>Diseño y creación de niveles</t>
+  </si>
+  <si>
+    <t>Implementación de menús</t>
+  </si>
+  <si>
+    <t>Implementación del HUD</t>
+  </si>
+  <si>
+    <t>Implementación de clipping (comparativa de FPS con/sin oclusiones)</t>
+  </si>
+  <si>
+    <t>Sistema de Level-Of-Detail (LoD) para la selección de la malla gráfica de los objetos</t>
+  </si>
+  <si>
+    <t>Detallar plan iteraciones del mes de Febrero-Marzo. Creación Subtareas y precedencias en Project</t>
+  </si>
+  <si>
+    <t>Detallar plan iteraciones del mes de Febrero-Marzo Asignar recursos a las tareas en Project.</t>
+  </si>
+  <si>
+    <t>Comparar la planificación prevista y real en Project hito 3.</t>
+  </si>
+  <si>
+    <t>Confeccionar  Informes de iteración e informe resumen de Hito 3</t>
+  </si>
+  <si>
+    <t>Elaborar  la presentación del Hito 3</t>
+  </si>
+  <si>
+    <t>Exponer  la presentación del Hito 3</t>
+  </si>
+  <si>
+    <t>Arbol de la escena: Tipos de datos para nodos (completo) y entidades (sólo clase padre; clases hijas sin contenido), construcción del árbol, recorrido del árbol, salida en modo texto</t>
+  </si>
+  <si>
+    <t>Arbol de la escena: Tipos de datos para entidades de tipo transformacion (traslación, rotación y escalado relativos y absolutos. Otras transformaciones). Salida en modo texto</t>
+  </si>
+  <si>
+    <t>Arbol de la escena: Tipos de datos para entidades de tipo cámara y luz (cámaras y luces de dos tipos). Salida en modo texto</t>
+  </si>
+  <si>
+    <t>Arbol de la escena: Tipos de datos para entidades de tipo malla. Salida en modo texto</t>
+  </si>
+  <si>
+    <t>Arbol de la escena: Tipos de datos para entidades de tipo animación (cuadro a cuadro). Salida en modo texto</t>
+  </si>
+  <si>
+    <t>Gestor de recursos: Carga de modelos en formato múltiple en las entidades de tipo malla. Carga de varios ficheros para animación. Salida en modo texto</t>
+  </si>
+  <si>
+    <t>Visualización: visualizador OpenGL 4.X de las entidades tipo malla. Shader básico. Integración con el motor. Sin materiales, texturas, cámara ni luces</t>
+  </si>
+  <si>
+    <t>Visualización: visualizador OpenGL 4.X de las entidades tipo malla. Shader básico. Con cámaras y luces de varios tipos. Visualización con registro de cámaras y luces.</t>
+  </si>
+  <si>
+    <t>Gestor de recursos: Carga de materiales y texturas. Salida en modo texto</t>
+  </si>
+  <si>
+    <t>Visualización: visualizador OpenGL 4.X de las entidades tipo malla. Shader básico. Añadiendo materiales y texturas.</t>
+  </si>
+  <si>
+    <t>Fachada: creación de una fachada entre el motor y la aplicación.</t>
+  </si>
+  <si>
+    <t>Visualización: visualizador OpenGL 4.X con cuatro shaders avanzados</t>
+  </si>
+  <si>
+    <t>IGC: Aplicación: cargador de modelos, movimiento del modelo, de las luces y de la cámara. Cambio de modelo, materiales y texturas. Animaciones.  Integración con el motor; ICED: Integración con el videojuego, sustitución de Irrlicht por el motor propio</t>
+  </si>
+  <si>
+    <t>Optimizaciones del motor (4 técnicas)</t>
+  </si>
+  <si>
+    <t>Trailer juego/proyecto</t>
+  </si>
+  <si>
+    <t>Vídeo final juego / explicación parte del proyecto</t>
+  </si>
+  <si>
+    <t>Modelado de los personajes</t>
+  </si>
+  <si>
+    <t>Texturizado de los personajes</t>
+  </si>
+  <si>
+    <t>Rigging de los personajes</t>
+  </si>
+  <si>
+    <t>Captura de movimiento</t>
+  </si>
+  <si>
+    <t>Animación de los personajes</t>
+  </si>
+  <si>
+    <t>Modelado del entorno y elementos</t>
+  </si>
+  <si>
+    <t>Texturizado del entorno y elementos</t>
+  </si>
+  <si>
+    <t>HITO 4</t>
+  </si>
+  <si>
+    <t>Implementación de cesped y vegetación</t>
+  </si>
+  <si>
+    <t>Implementación de sistemas de partículas</t>
+  </si>
+  <si>
+    <t>Detallar plan iteraciones del mes de Abril-Mayo. Creación Subtareas y precedencias en Project</t>
+  </si>
+  <si>
+    <t>Detallar plan iteraciones del mes de Abril-Mayo. Asignar recursos a las tareas en Project.</t>
+  </si>
+  <si>
+    <t>Comparar la planificación prevista y real en Project hito 4.</t>
+  </si>
+  <si>
+    <t>Confeccionar  Informes de iteración e informe resumen de Hito 4.</t>
+  </si>
+  <si>
+    <t>Elaborar  la presentación del Hito 4</t>
+  </si>
+  <si>
+    <t>Exponer  la presentación del Hito 4</t>
+  </si>
+  <si>
+    <t>Efectos visuales (3 efectos)</t>
+  </si>
+  <si>
+    <t>Extras (a determinar por el grupo)</t>
+  </si>
+  <si>
+    <t>Making of juego/proyecto</t>
+  </si>
+  <si>
+    <t>Créditos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,8 +423,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +488,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFE598"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -331,22 +550,57 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -379,15 +633,445 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -738,520 +1422,1352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A99:D146"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="24">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="24">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="24">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="26">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="32">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="6">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="6">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="6">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="7">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="7">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="7">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="11">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="41">
+        <v>25</v>
+      </c>
+    </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>0</v>
+      <c r="A99" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="43">
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="48">
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="48">
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="45">
         <v>1</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="11">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" s="12">
         <v>5</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="6">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="6">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="6">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="6">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="7">
-        <v>7.27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="7">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="7">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="7">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="7">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="7">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="7">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="7">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="7">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="7">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="7">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" s="7">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C123" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C124" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" s="8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" s="8">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C128" s="8">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" s="8">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C130" s="8">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C131" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C134" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C135" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" s="15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C138" s="15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C139" s="15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A140" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C140" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A141" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C141" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C142" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A143" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A133:A134">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>($C$15=6)</formula>
+  <conditionalFormatting sqref="A35:A36">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135:A136">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>($C$15=5)</formula>
+  <conditionalFormatting sqref="A37:A38">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>($C$16=2)</formula>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138:A139">
+  <conditionalFormatting sqref="A40:A41">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>(#REF!=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>(#REF!=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:A97">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:C99">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A99">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>(#REF!=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:A104">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>(#REF!=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:A106">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(#REF!=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:A121">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:C121">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122:A123">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>($C$16=2)</formula>
+      <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
   <si>
     <t>ENTREGABLES POR HITERACIONES</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Créditos</t>
+  </si>
+  <si>
+    <t>si, a modificar</t>
   </si>
 </sst>
 </file>
@@ -680,228 +683,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -1425,7 +1207,7 @@
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,6 +1251,9 @@
       <c r="C5" s="6">
         <v>1.82</v>
       </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1480,6 +1265,9 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1491,6 +1279,9 @@
       <c r="C7" s="6">
         <v>1.82</v>
       </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1502,6 +1293,9 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2701,47 +2495,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A41">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A97">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C99">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:A99">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
   <si>
     <t>ENTREGABLES POR HITERACIONES</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>si, a modificar</t>
+  </si>
+  <si>
+    <t>ELIMINADO</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,6 +440,18 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="12">
@@ -603,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -679,6 +697,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,19 +1235,19 @@
     <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1275,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1307,8 +1327,11 @@
       <c r="C9" s="6">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1342,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1330,7 +1353,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1340,8 +1363,9 @@
       <c r="C12" s="7">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1351,8 +1375,11 @@
       <c r="C13" s="7">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1390,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -1373,8 +1400,11 @@
       <c r="C15" s="7">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1415,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1426,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1437,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1448,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
@@ -1428,8 +1458,11 @@
       <c r="C20" s="7">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +1473,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
@@ -1451,7 +1484,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>24</v>
       </c>
@@ -1461,8 +1494,11 @@
       <c r="C23" s="7">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
@@ -1473,7 +1509,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
@@ -1484,7 +1520,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1531,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1506,7 +1542,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
@@ -1517,7 +1553,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1564,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1575,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1586,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1597,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1608,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1619,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>37</v>
       </c>
@@ -1594,7 +1630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>38</v>
       </c>
@@ -1605,7 +1641,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>41</v>
       </c>
@@ -1616,7 +1652,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>42</v>
       </c>
@@ -1626,8 +1662,11 @@
       <c r="C38" s="13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>44</v>
       </c>
@@ -1637,8 +1676,11 @@
       <c r="C39" s="15">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>45</v>
       </c>
@@ -1649,7 +1691,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
@@ -1660,7 +1702,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>48</v>
       </c>
@@ -1671,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1682,7 +1724,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>50</v>
       </c>
@@ -1693,7 +1735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="127">
   <si>
     <t>ENTREGABLES POR HITERACIONES</t>
   </si>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>si, basico</t>
+  </si>
+  <si>
+    <t>si, sin margen</t>
+  </si>
+  <si>
+    <t>en ello</t>
+  </si>
+  <si>
+    <t>si CAMBIAR</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,6 +1353,9 @@
       <c r="C10" s="6">
         <v>4.6399999999999997</v>
       </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1363,6 +1378,9 @@
       <c r="C12" s="7">
         <v>7.27</v>
       </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
       <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1447,6 +1465,9 @@
       <c r="C19" s="7">
         <v>1.36</v>
       </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
@@ -1459,7 +1480,7 @@
         <v>2.27</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,6 +1493,9 @@
       <c r="C21" s="7">
         <v>1.82</v>
       </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
@@ -1482,6 +1506,9 @@
       </c>
       <c r="C22" s="7">
         <v>1.36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="129">
   <si>
     <t>ENTREGABLES POR HITERACIONES</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>si CAMBIAR</t>
+  </si>
+  <si>
+    <t>"ejemplo"</t>
+  </si>
+  <si>
+    <t>infografia</t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,6 +1756,9 @@
       <c r="C43" s="19">
         <v>0.1</v>
       </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
@@ -1771,6 +1780,9 @@
       </c>
       <c r="C45" s="19">
         <v>0.1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="-400" yWindow="460" windowWidth="24340" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="129">
   <si>
-    <t>ENTREGABLES POR HITERACIONES</t>
-  </si>
-  <si>
     <t>HITO 1</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>infografia</t>
+  </si>
+  <si>
+    <t>ENTREGABLES POR HITOS</t>
   </si>
 </sst>
 </file>
@@ -1244,9 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1255,120 +1253,120 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6">
         <v>1.82</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6">
         <v>1.82</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6">
         <v>2.91</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6">
         <v>4.6399999999999997</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6">
         <v>2.5499999999999998</v>
@@ -1376,39 +1374,39 @@
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7">
         <v>7.27</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7">
         <v>3.18</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7">
         <v>1.82</v>
@@ -1416,24 +1414,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="7">
         <v>0.45</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>2.27</v>
@@ -1441,10 +1439,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>3.18</v>
@@ -1452,10 +1450,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>2.27</v>
@@ -1463,80 +1461,80 @@
     </row>
     <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7">
         <v>1.36</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7">
         <v>2.27</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7">
         <v>1.82</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7">
         <v>1.36</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>2.27</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8">
         <v>2.4</v>
@@ -1544,10 +1542,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8">
         <v>2.4</v>
@@ -1555,10 +1553,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8">
         <v>2.4</v>
@@ -1566,10 +1564,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8">
         <v>2.4</v>
@@ -1577,10 +1575,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8">
         <v>2.4</v>
@@ -1588,10 +1586,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8">
         <v>2.25</v>
@@ -1599,10 +1597,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8">
         <v>2.25</v>
@@ -1610,10 +1608,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="8">
         <v>2.25</v>
@@ -1621,10 +1619,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="8">
         <v>2.25</v>
@@ -1632,10 +1630,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>1.5</v>
@@ -1643,10 +1641,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="8">
         <v>1.5</v>
@@ -1654,10 +1652,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="10">
         <v>0.5</v>
@@ -1665,10 +1663,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="C36" s="10">
         <v>0.5</v>
@@ -1676,10 +1674,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="13">
         <v>0.15</v>
@@ -1687,38 +1685,38 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="C38" s="13">
         <v>0.1</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="15">
         <v>0.02</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="15">
         <v>0.02</v>
@@ -1726,10 +1724,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C41" s="15">
         <v>0.01</v>
@@ -1737,10 +1735,10 @@
     </row>
     <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="18">
         <v>10</v>
@@ -1748,24 +1746,24 @@
     </row>
     <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="19">
         <v>0.1</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="19">
         <v>0.1</v>
@@ -1773,45 +1771,45 @@
     </row>
     <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="C45" s="19">
         <v>0.1</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="C50" s="24">
         <v>4.55</v>
@@ -1819,10 +1817,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="24">
         <v>4.2699999999999996</v>
@@ -1830,10 +1828,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="24">
         <v>3.09</v>
@@ -1841,10 +1839,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="26">
         <v>3.18</v>
@@ -1852,10 +1850,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="26">
         <v>0.45</v>
@@ -1863,10 +1861,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="29">
         <v>3</v>
@@ -1874,10 +1872,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="29">
         <v>3</v>
@@ -1885,10 +1883,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="29">
         <v>0.5</v>
@@ -1896,10 +1894,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="29">
         <v>0.5</v>
@@ -1907,10 +1905,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="29">
         <v>1</v>
@@ -1918,10 +1916,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="29">
         <v>1</v>
@@ -1929,10 +1927,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="29">
         <v>1</v>
@@ -1940,10 +1938,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="32">
         <v>1.6</v>
@@ -1951,10 +1949,10 @@
     </row>
     <row r="63" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="35">
         <v>0.05</v>
@@ -1962,10 +1960,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="38">
         <v>0.5</v>
@@ -1973,31 +1971,31 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="6">
         <v>5.45</v>
@@ -2005,10 +2003,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="6">
         <v>5.45</v>
@@ -2016,10 +2014,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="6">
         <v>3.18</v>
@@ -2027,10 +2025,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="7">
         <v>5.45</v>
@@ -2038,10 +2036,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="7">
         <v>3.18</v>
@@ -2049,10 +2047,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="7">
         <v>2.27</v>
@@ -2060,10 +2058,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="7">
         <v>1.82</v>
@@ -2071,10 +2069,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" s="7">
         <v>1.36</v>
@@ -2082,10 +2080,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" s="45">
         <v>0.5</v>
@@ -2093,10 +2091,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="45">
         <v>0.5</v>
@@ -2104,10 +2102,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="45">
         <v>1</v>
@@ -2115,10 +2113,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="45">
         <v>1</v>
@@ -2126,10 +2124,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" s="45">
         <v>1</v>
@@ -2137,10 +2135,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="45">
         <v>0.75</v>
@@ -2148,10 +2146,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="45">
         <v>0.75</v>
@@ -2159,10 +2157,10 @@
     </row>
     <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84" s="11">
         <v>1.1000000000000001</v>
@@ -2170,10 +2168,10 @@
     </row>
     <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" s="11">
         <v>2.6</v>
@@ -2181,10 +2179,10 @@
     </row>
     <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" s="11">
         <v>1.6</v>
@@ -2192,10 +2190,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" s="11">
         <v>1</v>
@@ -2203,10 +2201,10 @@
     </row>
     <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" s="11">
         <v>1.6</v>
@@ -2214,10 +2212,10 @@
     </row>
     <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C89" s="11">
         <v>2.1</v>
@@ -2225,10 +2223,10 @@
     </row>
     <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" s="11">
         <v>1.1000000000000001</v>
@@ -2236,10 +2234,10 @@
     </row>
     <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" s="11">
         <v>2.1</v>
@@ -2247,10 +2245,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="11">
         <v>2.1</v>
@@ -2258,10 +2256,10 @@
     </row>
     <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C93" s="11">
         <v>2.1</v>
@@ -2269,10 +2267,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" s="11">
         <v>2.6</v>
@@ -2280,10 +2278,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="11">
         <v>4.5</v>
@@ -2291,10 +2289,10 @@
     </row>
     <row r="96" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" s="11">
         <v>6.5</v>
@@ -2302,10 +2300,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="11">
         <v>4.7</v>
@@ -2313,10 +2311,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C98" s="41">
         <v>25</v>
@@ -2324,10 +2322,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C99" s="41">
         <v>15</v>
@@ -2335,10 +2333,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="43">
         <v>20</v>
@@ -2346,10 +2344,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" s="43">
         <v>10</v>
@@ -2357,10 +2355,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" s="43">
         <v>5</v>
@@ -2368,10 +2366,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="43">
         <v>10</v>
@@ -2379,10 +2377,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C104" s="43">
         <v>20</v>
@@ -2390,10 +2388,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" s="43">
         <v>20</v>
@@ -2401,10 +2399,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C106" s="43">
         <v>10</v>
@@ -2412,31 +2410,31 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D110" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" s="48">
         <v>1.3636363636363635</v>
@@ -2444,10 +2442,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C112" s="48">
         <v>1.3636363636363635</v>
@@ -2455,10 +2453,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" s="8">
         <v>0.5</v>
@@ -2466,10 +2464,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" s="45">
         <v>0.5</v>
@@ -2477,10 +2475,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115" s="45">
         <v>1</v>
@@ -2488,10 +2486,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" s="45">
         <v>1</v>
@@ -2499,10 +2497,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C117" s="45">
         <v>1</v>
@@ -2510,10 +2508,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" s="45">
         <v>0.75</v>
@@ -2521,10 +2519,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119" s="45">
         <v>0.75</v>
@@ -2532,10 +2530,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C120" s="11">
         <v>4.2</v>
@@ -2543,10 +2541,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C121" s="11">
         <v>17.5</v>
@@ -2554,10 +2552,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C122" s="12">
         <v>25</v>
@@ -2565,10 +2563,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C123" s="12">
         <v>5</v>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
-  <si>
-    <t>ENTREGABLES POR HITERACIONES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="123">
   <si>
     <t>HITO 1</t>
   </si>
@@ -396,6 +393,9 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>ENTREGABLES POR ITERACIONES</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,106 +1237,106 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6">
         <v>1.82</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6">
         <v>1.82</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6">
         <v>2.91</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6">
         <v>4.6399999999999997</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6">
         <v>2.5499999999999998</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7">
         <v>7.27</v>
@@ -1367,24 +1367,24 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7">
         <v>3.18</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7">
         <v>1.82</v>
@@ -1392,24 +1392,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="7">
         <v>0.45</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>2.27</v>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7">
         <v>3.18</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>2.27</v>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7">
         <v>1.36</v>
@@ -1450,35 +1450,38 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7">
         <v>2.27</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="7">
         <v>1.82</v>
       </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7">
         <v>1.36</v>
@@ -1486,24 +1489,24 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>2.27</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8">
         <v>2.4</v>
@@ -1511,10 +1514,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8">
         <v>2.4</v>
@@ -1522,10 +1525,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8">
         <v>2.4</v>
@@ -1533,10 +1536,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8">
         <v>2.4</v>
@@ -1544,10 +1547,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8">
         <v>2.4</v>
@@ -1555,10 +1558,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8">
         <v>2.25</v>
@@ -1566,10 +1569,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8">
         <v>2.25</v>
@@ -1577,10 +1580,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="8">
         <v>2.25</v>
@@ -1588,10 +1591,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="8">
         <v>2.25</v>
@@ -1599,10 +1602,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>1.5</v>
@@ -1610,10 +1613,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="8">
         <v>1.5</v>
@@ -1621,10 +1624,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="10">
         <v>0.5</v>
@@ -1632,10 +1635,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="C36" s="10">
         <v>0.5</v>
@@ -1643,10 +1646,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="13">
         <v>0.15</v>
@@ -1654,38 +1657,38 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="C38" s="13">
         <v>0.1</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="15">
         <v>0.02</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="15">
         <v>0.02</v>
@@ -1693,10 +1696,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C41" s="15">
         <v>0.01</v>
@@ -1704,10 +1707,10 @@
     </row>
     <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="18">
         <v>10</v>
@@ -1715,10 +1718,10 @@
     </row>
     <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="19">
         <v>0.1</v>
@@ -1726,10 +1729,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="19">
         <v>0.1</v>
@@ -1737,10 +1740,10 @@
     </row>
     <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="C45" s="19">
         <v>0.1</v>
@@ -1748,31 +1751,31 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="C50" s="24">
         <v>4.55</v>
@@ -1780,10 +1783,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="24">
         <v>4.2699999999999996</v>
@@ -1791,10 +1794,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="24">
         <v>3.09</v>
@@ -1802,10 +1805,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="26">
         <v>3.18</v>
@@ -1813,10 +1816,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="26">
         <v>0.45</v>
@@ -1824,10 +1827,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="29">
         <v>3</v>
@@ -1835,10 +1838,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="29">
         <v>3</v>
@@ -1846,10 +1849,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="29">
         <v>0.5</v>
@@ -1857,10 +1860,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="29">
         <v>0.5</v>
@@ -1868,10 +1871,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" s="29">
         <v>1</v>
@@ -1879,10 +1882,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="29">
         <v>1</v>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="29">
         <v>1</v>
@@ -1901,10 +1904,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="32">
         <v>1.6</v>
@@ -1912,10 +1915,10 @@
     </row>
     <row r="63" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="35">
         <v>0.05</v>
@@ -1923,10 +1926,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="38">
         <v>0.5</v>
@@ -1934,31 +1937,31 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="6">
         <v>5.45</v>
@@ -1966,10 +1969,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="6">
         <v>5.45</v>
@@ -1977,10 +1980,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="6">
         <v>3.18</v>
@@ -1988,10 +1991,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="7">
         <v>5.45</v>
@@ -1999,10 +2002,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="7">
         <v>3.18</v>
@@ -2010,10 +2013,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="7">
         <v>2.27</v>
@@ -2021,10 +2024,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="7">
         <v>1.82</v>
@@ -2032,10 +2035,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" s="7">
         <v>1.36</v>
@@ -2043,10 +2046,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" s="45">
         <v>0.5</v>
@@ -2054,10 +2057,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="45">
         <v>0.5</v>
@@ -2065,10 +2068,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="45">
         <v>1</v>
@@ -2076,10 +2079,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="45">
         <v>1</v>
@@ -2087,10 +2090,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" s="45">
         <v>1</v>
@@ -2098,10 +2101,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="45">
         <v>0.75</v>
@@ -2109,10 +2112,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="45">
         <v>0.75</v>
@@ -2120,10 +2123,10 @@
     </row>
     <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84" s="11">
         <v>1.1000000000000001</v>
@@ -2131,10 +2134,10 @@
     </row>
     <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" s="11">
         <v>2.6</v>
@@ -2142,10 +2145,10 @@
     </row>
     <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" s="11">
         <v>1.6</v>
@@ -2153,10 +2156,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" s="11">
         <v>1</v>
@@ -2164,10 +2167,10 @@
     </row>
     <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" s="11">
         <v>1.6</v>
@@ -2175,10 +2178,10 @@
     </row>
     <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C89" s="11">
         <v>2.1</v>
@@ -2186,10 +2189,10 @@
     </row>
     <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" s="11">
         <v>1.1000000000000001</v>
@@ -2197,10 +2200,10 @@
     </row>
     <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" s="11">
         <v>2.1</v>
@@ -2208,10 +2211,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="11">
         <v>2.1</v>
@@ -2219,10 +2222,10 @@
     </row>
     <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C93" s="11">
         <v>2.1</v>
@@ -2230,10 +2233,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" s="11">
         <v>2.6</v>
@@ -2241,10 +2244,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="11">
         <v>4.5</v>
@@ -2252,10 +2255,10 @@
     </row>
     <row r="96" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" s="11">
         <v>6.5</v>
@@ -2263,10 +2266,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="11">
         <v>4.7</v>
@@ -2274,10 +2277,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C98" s="41">
         <v>25</v>
@@ -2285,10 +2288,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C99" s="41">
         <v>15</v>
@@ -2296,10 +2299,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="43">
         <v>20</v>
@@ -2307,10 +2310,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" s="43">
         <v>10</v>
@@ -2318,10 +2321,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" s="43">
         <v>5</v>
@@ -2329,10 +2332,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="43">
         <v>10</v>
@@ -2340,10 +2343,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C104" s="43">
         <v>20</v>
@@ -2351,10 +2354,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" s="43">
         <v>20</v>
@@ -2362,10 +2365,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C106" s="43">
         <v>10</v>
@@ -2373,31 +2376,31 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D110" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" s="48">
         <v>1.3636363636363635</v>
@@ -2405,10 +2408,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C112" s="48">
         <v>1.3636363636363635</v>
@@ -2416,10 +2419,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" s="8">
         <v>0.5</v>
@@ -2427,10 +2430,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" s="45">
         <v>0.5</v>
@@ -2438,10 +2441,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115" s="45">
         <v>1</v>
@@ -2449,10 +2452,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" s="45">
         <v>1</v>
@@ -2460,10 +2463,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C117" s="45">
         <v>1</v>
@@ -2471,10 +2474,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" s="45">
         <v>0.75</v>
@@ -2482,10 +2485,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119" s="45">
         <v>0.75</v>
@@ -2493,10 +2496,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C120" s="11">
         <v>4.2</v>
@@ -2504,10 +2507,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C121" s="11">
         <v>17.5</v>
@@ -2515,10 +2518,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C122" s="12">
         <v>25</v>
@@ -2526,10 +2529,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C123" s="12">
         <v>5</v>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-400" yWindow="460" windowWidth="24340" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>HITO 1</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>ENTREGABLES POR HITOS</t>
+  </si>
+  <si>
+    <t>Julia y Gaspar</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1813,6 +1818,9 @@
       </c>
       <c r="C50" s="24">
         <v>4.55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
   <si>
     <t>HITO 1</t>
   </si>
@@ -426,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +473,18 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Cuerpo)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -642,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -720,6 +732,8 @@
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2032,371 +2046,371 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="52">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="52">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="52">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="52">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="52">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C77" s="7">
         <v>5.45</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C78" s="7">
         <v>3.18</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C79" s="7">
         <v>2.27</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C80" s="7">
         <v>1.82</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C81" s="7">
         <v>1.36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="45">
-        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B82" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C82" s="45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="45">
+      <c r="B88" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="45">
         <v>0.75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="11">
-        <v>1.6</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="11">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C90" s="11">
-        <v>1.1000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="11">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="11">
-        <v>2.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="11">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C95" s="11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C96" s="11">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>96</v>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A101" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="11">
         <v>4.7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B103" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="41">
+      <c r="C103" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="40" t="s">
+      <c r="B104" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C99" s="41">
+      <c r="C104" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="B100" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" s="43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C101" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C102" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C104" s="43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="B105" s="42" t="s">
         <v>46</v>
@@ -2405,9 +2419,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B106" s="42" t="s">
         <v>46</v>
@@ -2416,167 +2430,222 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="46" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="47" t="s">
+      <c r="B116" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C111" s="48">
+      <c r="C116" s="48">
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="46" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B117" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="48">
+      <c r="C117" s="48">
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="8">
+      <c r="B118" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="45">
+      <c r="B119" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="45">
+      <c r="B120" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" s="45">
+      <c r="B121" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="45">
+      <c r="B122" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="45">
+      <c r="B123" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="45">
         <v>0.75</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B119" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="45">
+      <c r="B124" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="45">
         <v>0.75</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C125" s="11">
         <v>4.2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C126" s="11">
         <v>17.5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B127" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C127" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="12" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="40" t="s">
+      <c r="B128" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C128" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2611,42 +2680,42 @@
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:A97">
+  <conditionalFormatting sqref="A89:A102">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84:C99">
+  <conditionalFormatting sqref="C89:C104">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:A99">
+  <conditionalFormatting sqref="A103:A104">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:A104">
+  <conditionalFormatting sqref="A105:A109">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A106">
+  <conditionalFormatting sqref="A110:A111">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A121">
+  <conditionalFormatting sqref="A125:A126">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120:C121">
+  <conditionalFormatting sqref="C125:C126">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:A123">
+  <conditionalFormatting sqref="A127:A128">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(#REF!=5)</formula>
     </cfRule>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>HITO 1</t>
   </si>
@@ -426,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -486,8 +486,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,8 +561,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -650,11 +663,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -734,6 +784,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2156,184 +2214,184 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="45">
-        <v>0.5</v>
+      <c r="A82" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="54">
+        <v>2.27</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="45">
-        <v>0.5</v>
+      <c r="A83" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="56">
+        <v>2.27</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="45">
-        <v>1</v>
+      <c r="A84" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="56">
+        <v>1.36</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="45">
-        <v>1</v>
+      <c r="A85" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="56">
+        <v>2.27</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B86" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C86" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B87" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C87" s="45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="45">
+      <c r="B92" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="45">
         <v>0.75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C92" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="11">
-        <v>1.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="11">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C95" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C96" s="11">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="11">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>38</v>
@@ -2342,119 +2400,119 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C99" s="11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C100" s="11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C101" s="11">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>96</v>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C102" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="11">
         <v>4.7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="40" t="s">
+      <c r="B107" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="41">
+      <c r="C107" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B108" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C104" s="41">
+      <c r="C108" s="41">
         <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" s="43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C107" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="43">
-        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B109" s="42" t="s">
         <v>46</v>
@@ -2465,187 +2523,231 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B110" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C110" s="43">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B111" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C111" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="43">
         <v>10</v>
       </c>
     </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="43">
+        <v>20</v>
+      </c>
+    </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="46" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B120" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="48">
+      <c r="C120" s="48">
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="46" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B117" s="47" t="s">
+      <c r="B121" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="48">
+      <c r="C121" s="48">
         <v>1.3636363636363635</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B118" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B119" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B120" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B121" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" s="45">
-        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B122" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C122" s="45">
-        <v>1</v>
+      <c r="C122" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B123" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B124" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="45">
+      <c r="B128" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="45">
         <v>0.75</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C129" s="11">
         <v>4.2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B130" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C130" s="11">
         <v>17.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B127" s="40" t="s">
+      <c r="B131" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C131" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B128" s="40" t="s">
+      <c r="B132" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C132" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2680,42 +2782,42 @@
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:A102">
+  <conditionalFormatting sqref="A93:A106">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C104">
+  <conditionalFormatting sqref="C93:C108">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A104">
+  <conditionalFormatting sqref="A107:A108">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A109">
+  <conditionalFormatting sqref="A109:A113">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110:A111">
+  <conditionalFormatting sqref="A114:A115">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125:A126">
+  <conditionalFormatting sqref="A129:A130">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125:C126">
+  <conditionalFormatting sqref="C129:C130">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:A128">
+  <conditionalFormatting sqref="A131:A132">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(#REF!=5)</formula>
     </cfRule>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -488,10 +488,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="13">
@@ -784,14 +782,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,7 +1318,7 @@
   <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="129">
   <si>
     <t>HITO 1</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Sistema de depuración visual in-game de la IA</t>
-  </si>
-  <si>
-    <t>Gestión de recursos de IA con Level-of-Detail (LoD)</t>
   </si>
   <si>
     <t>Diseño y creación de niveles</t>
@@ -1315,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C71" sqref="A71:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,7 +1325,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1363,7 +1360,7 @@
         <v>1.82</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1391,7 +1388,7 @@
         <v>1.82</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1419,7 +1416,7 @@
         <v>2.91</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1433,7 +1430,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,7 +1455,7 @@
         <v>7.27</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="49"/>
     </row>
@@ -1473,7 +1470,7 @@
         <v>3.18</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1498,7 +1495,7 @@
         <v>0.45</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1545,7 +1542,7 @@
         <v>1.36</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1559,7 +1556,7 @@
         <v>2.27</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1573,7 +1570,7 @@
         <v>1.82</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,7 +1584,7 @@
         <v>1.36</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1601,7 +1598,7 @@
         <v>2.27</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1769,7 +1766,7 @@
         <v>0.1</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1783,7 +1780,7 @@
         <v>0.02</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1830,7 +1827,7 @@
         <v>0.1</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1855,7 +1852,7 @@
         <v>0.1</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1890,7 +1887,7 @@
         <v>4.55</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2091,41 +2088,41 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="6">
-        <v>3.18</v>
+      <c r="C71" s="52">
+        <v>4.55</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="51" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="52">
-        <v>4.55</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="51" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B73" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="52">
-        <v>3.09</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B74" s="52" t="s">
         <v>53</v>
@@ -2136,24 +2133,24 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B75" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C75" s="52">
-        <v>1.82</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="52">
-        <v>2.5499999999999998</v>
+      <c r="A76" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="7">
+        <v>5.45</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,7 +2161,7 @@
         <v>54</v>
       </c>
       <c r="C77" s="7">
-        <v>5.45</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2175,7 +2172,7 @@
         <v>54</v>
       </c>
       <c r="C78" s="7">
-        <v>3.18</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,7 +2183,7 @@
         <v>54</v>
       </c>
       <c r="C79" s="7">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2197,62 +2194,62 @@
         <v>54</v>
       </c>
       <c r="C80" s="7">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="7">
-        <v>1.36</v>
+      <c r="C81" s="54">
+        <v>2.27</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="54" t="s">
+      <c r="A82" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="56">
         <v>2.27</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B83" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C83" s="56">
-        <v>2.27</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B84" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C84" s="56">
-        <v>1.36</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C85" s="56">
-        <v>2.27</v>
+      <c r="A85" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="45">
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2268,18 +2265,18 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B87" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C87" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B88" s="45" t="s">
         <v>35</v>
@@ -2307,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="C90" s="45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2321,15 +2318,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+    <row r="92" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A92" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="45">
-        <v>0.75</v>
+      <c r="B92" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="11">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2340,7 +2337,7 @@
         <v>38</v>
       </c>
       <c r="C93" s="11">
-        <v>1.1000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2351,10 +2348,10 @@
         <v>38</v>
       </c>
       <c r="C94" s="11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
         <v>85</v>
       </c>
@@ -2362,10 +2359,10 @@
         <v>38</v>
       </c>
       <c r="C95" s="11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
         <v>86</v>
       </c>
@@ -2373,7 +2370,7 @@
         <v>38</v>
       </c>
       <c r="C96" s="11">
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2384,7 +2381,7 @@
         <v>38</v>
       </c>
       <c r="C97" s="11">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2395,7 +2392,7 @@
         <v>38</v>
       </c>
       <c r="C98" s="11">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2406,10 +2403,10 @@
         <v>38</v>
       </c>
       <c r="C99" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
         <v>90</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
         <v>91</v>
       </c>
@@ -2431,7 +2428,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>38</v>
       </c>
       <c r="C102" s="11">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2447,10 @@
         <v>38</v>
       </c>
       <c r="C103" s="11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
         <v>94</v>
       </c>
@@ -2461,29 +2458,29 @@
         <v>38</v>
       </c>
       <c r="C104" s="11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A105" s="39" t="s">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C105" s="11">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="11">
-        <v>4.7</v>
+      <c r="B106" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="41">
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,18 +2491,18 @@
         <v>42</v>
       </c>
       <c r="C107" s="41">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" s="41">
-        <v>15</v>
+      <c r="B108" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="43">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,7 +2513,7 @@
         <v>46</v>
       </c>
       <c r="C109" s="43">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,7 +2524,7 @@
         <v>46</v>
       </c>
       <c r="C110" s="43">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,7 +2535,7 @@
         <v>46</v>
       </c>
       <c r="C111" s="43">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2549,7 +2546,7 @@
         <v>46</v>
       </c>
       <c r="C112" s="43">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2571,36 +2568,36 @@
         <v>46</v>
       </c>
       <c r="C114" s="43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B115" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C115" s="43">
-        <v>10</v>
-      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>3</v>
+      <c r="B119" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="48">
+        <v>1.3636363636363635</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>39</v>
@@ -2618,14 +2615,14 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="46" t="s">
+      <c r="A121" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C121" s="48">
-        <v>1.3636363636363635</v>
+      <c r="B121" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2635,24 +2632,24 @@
       <c r="B122" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="45">
         <v>0.5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B123" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B124" s="45" t="s">
         <v>35</v>
@@ -2680,7 +2677,7 @@
         <v>35</v>
       </c>
       <c r="C126" s="45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2695,14 +2692,14 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B128" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C128" s="45">
-        <v>0.75</v>
+      <c r="B128" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="11">
+        <v>4.2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2713,18 +2710,18 @@
         <v>38</v>
       </c>
       <c r="C129" s="11">
-        <v>4.2</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C130" s="11">
-        <v>17.5</v>
+      <c r="B130" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="12">
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2735,17 +2732,6 @@
         <v>42</v>
       </c>
       <c r="C131" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C132" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2780,42 +2766,42 @@
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A106">
+  <conditionalFormatting sqref="A92:A105">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C108">
+  <conditionalFormatting sqref="C92:C107">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A108">
+  <conditionalFormatting sqref="A106:A107">
     <cfRule type="expression" dxfId="5" priority="7">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A113">
+  <conditionalFormatting sqref="A108:A112">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:A115">
+  <conditionalFormatting sqref="A113:A114">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:A130">
+  <conditionalFormatting sqref="A128:A129">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:C130">
+  <conditionalFormatting sqref="C128:C129">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:A132">
+  <conditionalFormatting sqref="A130:A131">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(#REF!=5)</formula>
     </cfRule>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JuliaMartinezValera/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
   <si>
     <t>HITO 1</t>
   </si>
@@ -414,6 +414,66 @@
   </si>
   <si>
     <t>Julia y Gaspar</t>
+  </si>
+  <si>
+    <t>RECURSO</t>
+  </si>
+  <si>
+    <t>Hacer nuestro propio widget (CEGUI) - menú</t>
+  </si>
+  <si>
+    <t>Animaciones HUD (CEGUI)</t>
+  </si>
+  <si>
+    <t>Mecánica matar enemigos</t>
+  </si>
+  <si>
+    <t>Cambiar velocidad de la cámara y girarla</t>
+  </si>
+  <si>
+    <t>Rehén</t>
+  </si>
+  <si>
+    <t>Gestión de niveles</t>
+  </si>
+  <si>
+    <t>Cambiar la implementación de los objetos de armas (solo cambia el tipo)</t>
+  </si>
+  <si>
+    <t>Poner de forma aleatoria las monedas, llaves, armas</t>
+  </si>
+  <si>
+    <t>Meter el modelo del arma con el jugador</t>
+  </si>
+  <si>
+    <t>Interpolación</t>
+  </si>
+  <si>
+    <t>INTEGRAR IA</t>
+  </si>
+  <si>
+    <t>Arreglar las balas</t>
+  </si>
+  <si>
+    <t>STOYCHO</t>
+  </si>
+  <si>
+    <t>CATH</t>
+  </si>
+  <si>
+    <t>NEREA</t>
+  </si>
+  <si>
+    <t>STOYCHO Y GASPAR</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>GASPAR Y JULIA</t>
+  </si>
+  <si>
+    <t>STOYCHO, GASPAR JULIA Y FRAN</t>
   </si>
 </sst>
 </file>
@@ -423,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,8 +548,21 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +632,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -699,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -766,7 +881,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -787,6 +901,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C71" sqref="A71:C71"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1548,7 @@
       <c r="C9" s="6">
         <v>2.91</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1457,7 +1590,7 @@
       <c r="D12" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -2044,14 +2177,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -2064,133 +2197,145 @@
       <c r="D68" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="44" t="s">
+      <c r="E68" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="68" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="6">
         <v>5.45</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="44" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="66" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="6">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="51" t="s">
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="52">
+      <c r="C71" s="51">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="51" t="s">
+      <c r="D71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="52">
+      <c r="C72" s="51">
         <v>3.09</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="51" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="52">
+      <c r="C73" s="51">
         <v>1.82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="51" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="52">
+      <c r="C74" s="51">
         <v>1.82</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="51" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="52">
+      <c r="C75" s="51">
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="7">
         <v>5.45</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C77" s="7">
         <v>3.18</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="7">
         <v>2.27</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="7">
         <v>1.82</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="7">
@@ -2198,46 +2343,46 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="54">
+      <c r="C81" s="53">
         <v>2.27</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="55">
         <v>2.27</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="56">
+      <c r="C83" s="55">
         <v>1.36</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="56">
+      <c r="C84" s="55">
         <v>2.27</v>
       </c>
     </row>
@@ -2245,10 +2390,10 @@
       <c r="A85" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="45">
+      <c r="B85" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -2256,10 +2401,10 @@
       <c r="A86" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="45">
+      <c r="B86" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -2267,10 +2412,10 @@
       <c r="A87" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="45">
+      <c r="B87" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="44">
         <v>1</v>
       </c>
     </row>
@@ -2278,10 +2423,10 @@
       <c r="A88" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="45">
+      <c r="B88" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="44">
         <v>1</v>
       </c>
     </row>
@@ -2289,10 +2434,10 @@
       <c r="A89" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="45">
+      <c r="B89" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="44">
         <v>1</v>
       </c>
     </row>
@@ -2300,10 +2445,10 @@
       <c r="A90" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="45">
+      <c r="B90" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="44">
         <v>0.75</v>
       </c>
     </row>
@@ -2311,10 +2456,10 @@
       <c r="A91" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="45">
+      <c r="B91" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="44">
         <v>0.75</v>
       </c>
     </row>
@@ -2322,7 +2467,7 @@
       <c r="A92" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="11">
@@ -2333,7 +2478,7 @@
       <c r="A93" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="11">
@@ -2344,7 +2489,7 @@
       <c r="A94" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="11">
@@ -2355,7 +2500,7 @@
       <c r="A95" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C95" s="11">
@@ -2366,7 +2511,7 @@
       <c r="A96" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C96" s="11">
@@ -2377,7 +2522,7 @@
       <c r="A97" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="11">
@@ -2388,7 +2533,7 @@
       <c r="A98" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="11">
@@ -2399,7 +2544,7 @@
       <c r="A99" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C99" s="11">
@@ -2410,7 +2555,7 @@
       <c r="A100" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C100" s="11">
@@ -2421,7 +2566,7 @@
       <c r="A101" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C101" s="11">
@@ -2432,7 +2577,7 @@
       <c r="A102" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C102" s="11">
@@ -2443,7 +2588,7 @@
       <c r="A103" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C103" s="11">
@@ -2454,7 +2599,7 @@
       <c r="A104" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C104" s="11">
@@ -2465,7 +2610,7 @@
       <c r="A105" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C105" s="11">
@@ -2476,7 +2621,7 @@
       <c r="A106" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="41">
@@ -2487,7 +2632,7 @@
       <c r="A107" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C107" s="41">
@@ -2498,10 +2643,10 @@
       <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C108" s="43">
+      <c r="C108" s="42">
         <v>20</v>
       </c>
     </row>
@@ -2509,10 +2654,10 @@
       <c r="A109" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="42" t="s">
+      <c r="B109" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="43">
+      <c r="C109" s="42">
         <v>10</v>
       </c>
     </row>
@@ -2520,10 +2665,10 @@
       <c r="A110" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="43">
+      <c r="C110" s="42">
         <v>5</v>
       </c>
     </row>
@@ -2531,10 +2676,10 @@
       <c r="A111" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="42" t="s">
+      <c r="B111" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="43">
+      <c r="C111" s="42">
         <v>10</v>
       </c>
     </row>
@@ -2542,10 +2687,10 @@
       <c r="A112" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="43">
+      <c r="C112" s="42">
         <v>20</v>
       </c>
     </row>
@@ -2553,10 +2698,10 @@
       <c r="A113" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C113" s="43">
+      <c r="C113" s="42">
         <v>20</v>
       </c>
     </row>
@@ -2564,174 +2709,281 @@
       <c r="A114" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="42" t="s">
+      <c r="B114" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="43">
+      <c r="C114" s="42">
         <v>10</v>
       </c>
     </row>
+    <row r="115" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="59"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="61"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" s="63"/>
+      <c r="C116" s="64"/>
+    </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="63"/>
+      <c r="C117" s="64"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="56"/>
+      <c r="C118" s="57"/>
+      <c r="D118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="63"/>
+      <c r="C119" s="64"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120" s="56"/>
+      <c r="C120" s="57"/>
+      <c r="D120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="56"/>
+      <c r="C121" s="57"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="63"/>
+      <c r="C122" s="64"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="58"/>
+      <c r="C125" s="58"/>
+      <c r="D125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="58"/>
+      <c r="C126" s="58"/>
+      <c r="D126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
+      <c r="D127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="46" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B119" s="47" t="s">
+      <c r="B131" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="48">
+      <c r="C131" s="47">
         <v>1.3636363636363635</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="46" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="47" t="s">
+      <c r="B132" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="48">
+      <c r="C132" s="47">
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" s="8">
+      <c r="B133" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B122" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="45">
+      <c r="B134" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="44">
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B123" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" s="45">
+      <c r="B135" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B124" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="45">
+      <c r="B136" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B125" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" s="45">
+      <c r="B137" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B126" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C126" s="45">
+      <c r="B138" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B127" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" s="45">
+      <c r="B139" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B140" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C140" s="11">
         <v>4.2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C141" s="11">
         <v>17.5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B130" s="40" t="s">
+      <c r="B142" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C142" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B131" s="40" t="s">
+      <c r="B143" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C143" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2746,7 +2998,7 @@
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
+  <conditionalFormatting sqref="A39 A116:A127">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>(#REF!=2)</formula>
     </cfRule>
@@ -2786,26 +3038,27 @@
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113:A114">
+  <conditionalFormatting sqref="A113:A115">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A129">
+  <conditionalFormatting sqref="A140:A141">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C129">
+  <conditionalFormatting sqref="C140:C141">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130:A131">
+  <conditionalFormatting sqref="A142:A143">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -814,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -920,6 +920,11 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2577,7 +2582,7 @@
       <c r="A102" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="79" t="s">
         <v>38</v>
       </c>
       <c r="C102" s="11">
@@ -2752,13 +2757,13 @@
       <c r="B119" s="63"/>
       <c r="C119" s="64"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="56" t="s">
+    <row r="120" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="56"/>
-      <c r="C120" s="57"/>
-      <c r="D120" t="s">
+      <c r="B120" s="75"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2783,23 +2788,23 @@
       <c r="B123" s="65"/>
       <c r="C123" s="65"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="56" t="s">
+    <row r="124" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
-      <c r="D124" t="s">
+      <c r="B124" s="78"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="77" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="56" t="s">
+    <row r="125" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
-      <c r="D125" t="s">
+      <c r="B125" s="78"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="77" t="s">
         <v>143</v>
       </c>
     </row>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nereacastellanosrodriguez/Desktop/Universidad/CUARTO - ABP/github/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stoycho/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1452,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2741,12 +2738,12 @@
       <c r="C117" s="64"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="56" t="s">
+      <c r="A118" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B118" s="56"/>
-      <c r="C118" s="57"/>
-      <c r="D118" t="s">
+      <c r="B118" s="75"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="77" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2757,7 +2754,7 @@
       <c r="B119" s="63"/>
       <c r="C119" s="64"/>
     </row>
-    <row r="120" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="75" t="s">
         <v>134</v>
       </c>
@@ -2788,7 +2785,7 @@
       <c r="B123" s="65"/>
       <c r="C123" s="65"/>
     </row>
-    <row r="124" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="75" t="s">
         <v>138</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="75" t="s">
         <v>139</v>
       </c>
@@ -2819,12 +2816,12 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="56" t="s">
+      <c r="A127" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
-      <c r="D127" t="s">
+      <c r="B127" s="78"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="77" t="s">
         <v>142</v>
       </c>
     </row>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1450,7 +1450,7 @@
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2232,7 +2232,7 @@
       <c r="A71" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="79" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="51">

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="150">
   <si>
     <t>HITO 1</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>STOYCHO, GASPAR JULIA Y FRAN</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,23 +530,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Cuerpo)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -675,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -807,11 +793,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -879,7 +889,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -888,40 +897,47 @@
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1449,13 +1465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1550,7 +1567,7 @@
       <c r="C9" s="6">
         <v>2.91</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1592,7 +1609,7 @@
       <c r="D12" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -2204,10 +2221,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="79" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="6">
@@ -2215,10 +2232,10 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="51" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="6">
@@ -2229,13 +2246,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="57" t="s">
         <v>52</v>
       </c>
       <c r="B71" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="60">
         <v>4.55</v>
       </c>
       <c r="D71" t="s">
@@ -2243,46 +2260,46 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="60">
         <v>3.09</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="69" t="s">
+      <c r="B73" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="51">
+      <c r="C73" s="60">
         <v>1.82</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="69" t="s">
+      <c r="B74" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="51">
+      <c r="C74" s="60">
         <v>1.82</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="60">
         <v>2.5499999999999998</v>
       </c>
       <c r="D75" t="s">
@@ -2290,101 +2307,101 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="45">
         <v>5.45</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="68" t="s">
+      <c r="B77" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="45">
         <v>3.18</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="45">
         <v>2.27</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="45">
         <v>1.82</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="45">
         <v>1.36</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B81" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="53">
+      <c r="C81" s="61">
         <v>2.27</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="62">
         <v>2.27</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="73" t="s">
+      <c r="B83" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="55">
+      <c r="C83" s="62">
         <v>1.36</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="74" t="s">
+      <c r="B84" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="55">
+      <c r="C84" s="62">
         <v>2.27</v>
       </c>
     </row>
@@ -2392,10 +2409,10 @@
       <c r="A85" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="44">
+      <c r="B85" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="43">
         <v>0.5</v>
       </c>
     </row>
@@ -2403,10 +2420,10 @@
       <c r="A86" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="44">
+      <c r="B86" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="43">
         <v>0.5</v>
       </c>
     </row>
@@ -2414,10 +2431,10 @@
       <c r="A87" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="44">
+      <c r="B87" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2425,10 +2442,10 @@
       <c r="A88" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="44">
+      <c r="B88" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2436,10 +2453,10 @@
       <c r="A89" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="44">
+      <c r="B89" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2447,10 +2464,10 @@
       <c r="A90" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="44">
+      <c r="B90" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="43">
         <v>0.75</v>
       </c>
     </row>
@@ -2458,10 +2475,10 @@
       <c r="A91" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="44">
+      <c r="B91" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="43">
         <v>0.75</v>
       </c>
     </row>
@@ -2469,7 +2486,7 @@
       <c r="A92" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="11">
@@ -2480,7 +2497,7 @@
       <c r="A93" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="11">
@@ -2491,7 +2508,7 @@
       <c r="A94" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="11">
@@ -2502,7 +2519,7 @@
       <c r="A95" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="68" t="s">
+      <c r="B95" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C95" s="11">
@@ -2513,7 +2530,7 @@
       <c r="A96" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="70" t="s">
+      <c r="B96" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C96" s="11">
@@ -2524,7 +2541,7 @@
       <c r="A97" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C97" s="11">
@@ -2535,7 +2552,7 @@
       <c r="A98" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="11">
@@ -2546,7 +2563,7 @@
       <c r="A99" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="70" t="s">
+      <c r="B99" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C99" s="11">
@@ -2557,7 +2574,7 @@
       <c r="A100" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="68" t="s">
+      <c r="B100" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C100" s="11">
@@ -2568,7 +2585,7 @@
       <c r="A101" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="68" t="s">
+      <c r="B101" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C101" s="11">
@@ -2579,7 +2596,7 @@
       <c r="A102" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="79" t="s">
+      <c r="B102" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C102" s="11">
@@ -2590,7 +2607,7 @@
       <c r="A103" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C103" s="11">
@@ -2601,7 +2618,7 @@
       <c r="A104" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="66" t="s">
+      <c r="B104" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C104" s="11">
@@ -2612,7 +2629,7 @@
       <c r="A105" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="70" t="s">
+      <c r="B105" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C105" s="11">
@@ -2623,7 +2640,7 @@
       <c r="A106" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="66" t="s">
+      <c r="B106" s="55" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="41">
@@ -2634,7 +2651,7 @@
       <c r="A107" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="70" t="s">
+      <c r="B107" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C107" s="41">
@@ -2645,7 +2662,7 @@
       <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="66" t="s">
+      <c r="B108" s="78" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="42">
@@ -2656,7 +2673,7 @@
       <c r="A109" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="70" t="s">
+      <c r="B109" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="42">
@@ -2667,7 +2684,7 @@
       <c r="A110" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="70" t="s">
+      <c r="B110" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C110" s="42">
@@ -2678,7 +2695,7 @@
       <c r="A111" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="70" t="s">
+      <c r="B111" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C111" s="42">
@@ -2689,7 +2706,7 @@
       <c r="A112" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="70" t="s">
+      <c r="B112" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C112" s="42">
@@ -2700,7 +2717,7 @@
       <c r="A113" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="66" t="s">
+      <c r="B113" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="42">
@@ -2708,30 +2725,31 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="70" t="s">
+      <c r="B114" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="42">
+      <c r="C114" s="68">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="59"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="61"/>
+    <row r="115" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="71"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="63" t="s">
+      <c r="A116" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="63"/>
-      <c r="C116" s="64"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="70"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="63" t="s">
+      <c r="A117" s="75" t="s">
         <v>131</v>
       </c>
       <c r="B117" s="63"/>
@@ -2741,77 +2759,85 @@
       <c r="A118" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B118" s="75"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="77" t="s">
+      <c r="B118" s="55"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="50" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="63" t="s">
+      <c r="A119" s="75" t="s">
         <v>133</v>
       </c>
       <c r="B119" s="63"/>
       <c r="C119" s="64"/>
-    </row>
-    <row r="120" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="50"/>
+    </row>
+    <row r="120" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="75"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="77" t="s">
+      <c r="B120" s="55"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="50" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="56" t="s">
+      <c r="A121" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B121" s="56"/>
-      <c r="C121" s="57"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="50" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="63" t="s">
+      <c r="A122" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="63"/>
+      <c r="B122" s="55"/>
       <c r="C122" s="64"/>
+      <c r="D122" s="50" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="63" t="s">
+      <c r="A123" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="B123" s="65"/>
+      <c r="B123" s="63"/>
       <c r="C123" s="65"/>
-    </row>
-    <row r="124" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="50"/>
+    </row>
+    <row r="124" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="78"/>
-      <c r="C124" s="78"/>
-      <c r="D124" s="77" t="s">
+      <c r="B124" s="55"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B125" s="78"/>
-      <c r="C125" s="78"/>
-      <c r="D125" s="77" t="s">
+      <c r="B125" s="55"/>
+      <c r="C125" s="65"/>
+      <c r="D125" s="50" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="56" t="s">
+      <c r="A126" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="B126" s="58"/>
-      <c r="C126" s="58"/>
-      <c r="D126" t="s">
+      <c r="B126" s="55"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="50" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2819,9 +2845,9 @@
       <c r="A127" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="78"/>
-      <c r="C127" s="78"/>
-      <c r="D127" s="77" t="s">
+      <c r="B127" s="55"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="50" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2844,13 +2870,13 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="45" t="s">
+      <c r="A131" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="47">
+      <c r="C131" s="46">
         <v>1.3636363636363635</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -2858,13 +2884,13 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="45" t="s">
+      <c r="A132" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C132" s="47">
+      <c r="C132" s="46">
         <v>1.3636363636363635</v>
       </c>
     </row>
@@ -2872,7 +2898,7 @@
       <c r="A133" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C133" s="8">
@@ -2883,10 +2909,10 @@
       <c r="A134" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B134" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="44">
+      <c r="B134" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="43">
         <v>0.5</v>
       </c>
     </row>
@@ -2894,10 +2920,10 @@
       <c r="A135" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B135" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="44">
+      <c r="B135" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2905,10 +2931,10 @@
       <c r="A136" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" s="44">
+      <c r="B136" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2916,10 +2942,10 @@
       <c r="A137" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" s="44">
+      <c r="B137" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="43">
         <v>1</v>
       </c>
     </row>
@@ -2927,10 +2953,10 @@
       <c r="A138" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C138" s="44">
+      <c r="B138" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="43">
         <v>0.75</v>
       </c>
     </row>
@@ -2938,10 +2964,10 @@
       <c r="A139" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="44">
+      <c r="B139" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="43">
         <v>0.75</v>
       </c>
     </row>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stoycho/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Catherine/Documents/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="152">
   <si>
     <t>HITO 1</t>
   </si>
@@ -474,6 +477,12 @@
   </si>
   <si>
     <t>GASPAR</t>
+  </si>
+  <si>
+    <t>Parametrizar luces</t>
+  </si>
+  <si>
+    <t>STOYCHO Y CATH</t>
   </si>
 </sst>
 </file>
@@ -483,7 +492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,6 +552,16 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -821,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -938,11 +957,126 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1463,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2651,7 +2785,7 @@
       <c r="A107" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="55" t="s">
         <v>42</v>
       </c>
       <c r="C107" s="41">
@@ -2662,7 +2796,7 @@
       <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="78" t="s">
+      <c r="B108" s="77" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="42">
@@ -2673,7 +2807,7 @@
       <c r="A109" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="42">
@@ -2684,7 +2818,7 @@
       <c r="A110" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C110" s="42">
@@ -2742,65 +2876,73 @@
       <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B116" s="69"/>
-      <c r="C116" s="70"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" s="63"/>
+        <v>134</v>
+      </c>
+      <c r="B117" s="55"/>
       <c r="C117" s="64"/>
+      <c r="D117" s="50" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="75" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B118" s="55"/>
       <c r="C118" s="64"/>
       <c r="D118" s="50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B119" s="63"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="50"/>
+        <v>138</v>
+      </c>
+      <c r="B119" s="55"/>
+      <c r="C119" s="65"/>
+      <c r="D119" s="50" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="120" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="75" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B120" s="55"/>
-      <c r="C120" s="64"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B121" s="51"/>
-      <c r="C121" s="64"/>
+        <v>140</v>
+      </c>
+      <c r="B121" s="55"/>
+      <c r="C121" s="65"/>
       <c r="D121" s="50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="75" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B122" s="55"/>
-      <c r="C122" s="64"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="50" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,279 +2953,381 @@
       <c r="C123" s="65"/>
       <c r="D123" s="50"/>
     </row>
-    <row r="124" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124" s="55"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="50" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B124" s="63"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="50"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="69"/>
+      <c r="C125" s="70"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B126" s="55"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="50" t="s">
-        <v>147</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="64"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B127" s="55"/>
-      <c r="C127" s="65"/>
+      <c r="A127" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="61">
+        <v>2.27</v>
+      </c>
       <c r="D127" s="50" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="62">
+        <v>2.27</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>3</v>
+      <c r="A129" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="60">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A130" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B131" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="45">
+        <v>1.82</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="64"/>
+      <c r="D132" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="83"/>
+      <c r="D133" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="85"/>
+      <c r="B134" s="83"/>
+      <c r="C134" s="83"/>
+      <c r="D134" s="50"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="82"/>
+      <c r="B135" s="83"/>
+      <c r="C135" s="83"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B131" s="45" t="s">
+      <c r="B138" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="46">
+      <c r="C138" s="46">
         <v>1.3636363636363635</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="44" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B132" s="45" t="s">
+      <c r="B139" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C132" s="46">
+      <c r="C139" s="46">
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B133" s="43" t="s">
+      <c r="B140" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C140" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B134" s="43" t="s">
+      <c r="B141" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="43">
+      <c r="C141" s="43">
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B135" s="43" t="s">
+      <c r="B142" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="43">
+      <c r="C142" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="43" t="s">
+      <c r="B143" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C136" s="43">
+      <c r="C143" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="43" t="s">
+      <c r="B144" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C137" s="43">
+      <c r="C144" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="43" t="s">
+      <c r="B145" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C138" s="43">
+      <c r="C145" s="43">
         <v>0.75</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="43" t="s">
+      <c r="B146" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="43">
+      <c r="C146" s="43">
         <v>0.75</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B147" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C147" s="11">
         <v>4.2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C148" s="11">
         <v>17.5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="12" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B142" s="40" t="s">
+      <c r="B149" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C149" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="12" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B150" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C150" s="12">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39 A116:A127">
-    <cfRule type="expression" dxfId="11" priority="13">
+  <conditionalFormatting sqref="A39 A116:A126">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A41">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>(#REF!=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A105">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C107">
     <cfRule type="expression" dxfId="9" priority="11">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+  <conditionalFormatting sqref="A106:A107">
     <cfRule type="expression" dxfId="8" priority="10">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:A105">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>(#REF!=6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C107">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>(#REF!=6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:A107">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>(#REF!=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A108:A112">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A115">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A140:A141">
+  <conditionalFormatting sqref="A147:A148">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:C148">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:A150">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(#REF!=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140:C141">
+  <conditionalFormatting sqref="C130">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142:A143">
+  <conditionalFormatting sqref="A132">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(#REF!=5)</formula>
+      <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Catherine/Documents/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stoycho/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="18960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -974,58 +971,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -1599,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3049,7 +2995,7 @@
       <c r="A132" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="51" t="s">
+      <c r="B132" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="64"/>
@@ -3061,7 +3007,7 @@
       <c r="A133" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="B133" s="51" t="s">
+      <c r="B133" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C133" s="83"/>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="153">
   <si>
     <t>HITO 1</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>STOYCHO Y CATH</t>
+  </si>
+  <si>
+    <t>BEBER CERVEZA EN LA BOLERA DESPUES DE LA ENTREGA</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -948,7 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -964,8 +966,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2304,7 +2312,7 @@
       <c r="A69" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="79" t="s">
+      <c r="B69" s="78" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="6">
@@ -2329,7 +2337,7 @@
       <c r="A71" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="78" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="60">
@@ -2343,7 +2351,7 @@
       <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="60">
@@ -2354,7 +2362,7 @@
       <c r="A73" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="77" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="60">
@@ -2365,7 +2373,7 @@
       <c r="A74" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="77" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="60">
@@ -2390,7 +2398,7 @@
       <c r="A76" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="45">
@@ -2401,7 +2409,7 @@
       <c r="A77" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C77" s="45">
@@ -2412,7 +2420,7 @@
       <c r="A78" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="45">
@@ -2423,7 +2431,7 @@
       <c r="A79" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="45">
@@ -2434,7 +2442,7 @@
       <c r="A80" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="45">
@@ -2456,7 +2464,7 @@
       <c r="A82" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="80" t="s">
+      <c r="B82" s="79" t="s">
         <v>54</v>
       </c>
       <c r="C82" s="62">
@@ -2467,7 +2475,7 @@
       <c r="A83" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="80" t="s">
         <v>54</v>
       </c>
       <c r="C83" s="62">
@@ -2742,7 +2750,7 @@
       <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="42">
@@ -2753,7 +2761,7 @@
       <c r="A109" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="76" t="s">
+      <c r="B109" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="42">
@@ -2764,7 +2772,7 @@
       <c r="A110" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="76" t="s">
+      <c r="B110" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C110" s="42">
@@ -2786,7 +2794,7 @@
       <c r="A112" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="76" t="s">
+      <c r="B112" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C112" s="42">
@@ -2797,7 +2805,7 @@
       <c r="A113" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="42">
@@ -2925,7 +2933,7 @@
       <c r="A127" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="53" t="s">
+      <c r="B127" s="86" t="s">
         <v>54</v>
       </c>
       <c r="C127" s="61">
@@ -2939,7 +2947,7 @@
       <c r="A128" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="87" t="s">
         <v>54</v>
       </c>
       <c r="C128" s="62">
@@ -2967,7 +2975,7 @@
       <c r="A130" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="86" t="s">
+      <c r="B130" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C130" s="11">
@@ -2992,10 +3000,10 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B132" s="77" t="s">
+      <c r="B132" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="64"/>
@@ -3004,27 +3012,29 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="84" t="s">
         <v>150</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C133" s="83"/>
+      <c r="C133" s="82"/>
       <c r="D133" s="50" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="85"/>
-      <c r="B134" s="83"/>
-      <c r="C134" s="83"/>
+      <c r="A134" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="88"/>
+      <c r="C134" s="88"/>
       <c r="D134" s="50"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="82"/>
-      <c r="B135" s="83"/>
-      <c r="C135" s="83"/>
+      <c r="A135" s="81"/>
+      <c r="B135" s="82"/>
+      <c r="C135" s="82"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="152">
   <si>
     <t>HITO 1</t>
   </si>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>STOYCHO Y CATH</t>
-  </si>
-  <si>
-    <t>BEBER CERVEZA EN LA BOLERA DESPUES DE LA ENTREGA</t>
   </si>
 </sst>
 </file>
@@ -680,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -836,11 +833,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -940,7 +980,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -960,9 +999,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -971,15 +1007,245 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1551,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2312,7 +2578,7 @@
       <c r="A69" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="77" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="6">
@@ -2337,7 +2603,7 @@
       <c r="A71" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="78" t="s">
+      <c r="B71" s="77" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="60">
@@ -2351,7 +2617,7 @@
       <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="75" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="60">
@@ -2362,7 +2628,7 @@
       <c r="A73" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="60">
@@ -2373,7 +2639,7 @@
       <c r="A74" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="60">
@@ -2398,7 +2664,7 @@
       <c r="A76" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="45">
@@ -2409,7 +2675,7 @@
       <c r="A77" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C77" s="45">
@@ -2420,7 +2686,7 @@
       <c r="A78" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="75" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="45">
@@ -2431,7 +2697,7 @@
       <c r="A79" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="76" t="s">
+      <c r="B79" s="75" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="45">
@@ -2442,7 +2708,7 @@
       <c r="A80" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="75" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="45">
@@ -2464,7 +2730,7 @@
       <c r="A82" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C82" s="62">
@@ -2475,7 +2741,7 @@
       <c r="A83" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="79" t="s">
         <v>54</v>
       </c>
       <c r="C83" s="62">
@@ -2706,7 +2972,7 @@
       <c r="A104" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="51" t="s">
+      <c r="B104" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C104" s="11">
@@ -2750,7 +3016,7 @@
       <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="76" t="s">
+      <c r="B108" s="75" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="42">
@@ -2805,7 +3071,7 @@
       <c r="A113" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="76" t="s">
+      <c r="B113" s="75" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="42">
@@ -2824,13 +3090,13 @@
       </c>
     </row>
     <row r="115" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="71"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="73"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="72"/>
       <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="75" t="s">
+      <c r="A116" s="74" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="55"/>
@@ -2840,7 +3106,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="75" t="s">
+      <c r="A117" s="74" t="s">
         <v>134</v>
       </c>
       <c r="B117" s="55"/>
@@ -2850,7 +3116,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="75" t="s">
+      <c r="A118" s="74" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="55"/>
@@ -2860,7 +3126,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="75" t="s">
+      <c r="A119" s="74" t="s">
         <v>138</v>
       </c>
       <c r="B119" s="55"/>
@@ -2870,7 +3136,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="75" t="s">
+      <c r="A120" s="74" t="s">
         <v>139</v>
       </c>
       <c r="B120" s="55"/>
@@ -2880,7 +3146,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="75" t="s">
+      <c r="A121" s="74" t="s">
         <v>140</v>
       </c>
       <c r="B121" s="55"/>
@@ -2890,7 +3156,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="75" t="s">
+      <c r="A122" s="74" t="s">
         <v>141</v>
       </c>
       <c r="B122" s="55"/>
@@ -2900,389 +3166,541 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" s="63"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="50"/>
+      <c r="A123" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="61">
+        <v>2.27</v>
+      </c>
+      <c r="D123" s="50" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="63"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="50"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="69"/>
-      <c r="C125" s="70"/>
+      <c r="A124" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="62">
+        <v>2.27</v>
+      </c>
+      <c r="D124" s="50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A125" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B125" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="63"/>
-      <c r="C126" s="64"/>
+      <c r="A126" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="81"/>
+      <c r="D126" s="50" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B127" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="61">
-        <v>2.27</v>
-      </c>
-      <c r="D127" s="50" t="s">
-        <v>144</v>
-      </c>
+      <c r="A127" s="87"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="88"/>
+      <c r="D127" s="50"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B128" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C128" s="62">
-        <v>2.27</v>
-      </c>
-      <c r="D128" s="50" t="s">
-        <v>144</v>
-      </c>
+      <c r="A128" s="80"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="81"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="60">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D129" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A130" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B130" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C130" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="D130" s="50" t="s">
-        <v>151</v>
+      <c r="A129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B131" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="46">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="46">
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B139" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="11">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="63"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="50"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" s="63"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="50"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B147" s="86"/>
+      <c r="C147" s="69"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B148" s="100"/>
+      <c r="C148" s="101"/>
+    </row>
+    <row r="149" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="93"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="50"/>
+    </row>
+    <row r="150" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="104"/>
+      <c r="D150" s="50"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="89"/>
+      <c r="D151" s="50"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B131" s="51" t="s">
+      <c r="B152" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="45">
-        <v>1.82</v>
-      </c>
-      <c r="D131" s="50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="76" t="s">
+      <c r="C152" s="89"/>
+      <c r="D152" s="50"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C132" s="64"/>
-      <c r="D132" s="50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="B133" s="55" t="s">
+      <c r="C153" s="89"/>
+      <c r="D153" s="50"/>
+    </row>
+    <row r="154" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" s="90"/>
+    </row>
+    <row r="155" spans="1:4" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C133" s="82"/>
-      <c r="D133" s="50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="B134" s="88"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="50"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="81"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="82"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B138" s="45" t="s">
+      <c r="C155" s="96"/>
+    </row>
+    <row r="156" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B156" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="91"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B157" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="91"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B158" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" s="91"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C138" s="46">
-        <v>1.3636363636363635</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B139" s="45" t="s">
+      <c r="C159" s="91"/>
+    </row>
+    <row r="160" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C139" s="46">
-        <v>1.3636363636363635</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B140" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B141" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C141" s="43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B142" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C142" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B143" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B144" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B145" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="43">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B146" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C146" s="43">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C147" s="11">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C148" s="11">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C149" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C150" s="12">
-        <v>5</v>
-      </c>
+      <c r="C160" s="90"/>
+    </row>
+    <row r="161" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B161" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" s="96"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B162" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162" s="91"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B163" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C163" s="91"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B164" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C164" s="91"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B165" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" s="91"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B166" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C166" s="91"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B167" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" s="91"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="expression" dxfId="16" priority="18">
+  <conditionalFormatting sqref="A35:A36 A157:A158">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39 A116:A126">
-    <cfRule type="expression" dxfId="14" priority="16">
+  <conditionalFormatting sqref="A39 A116:A122">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A41">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A105">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C107">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A112">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A115">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:A148">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A140:A141">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147:C148">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="C140:C141">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A149:A150">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A142:A143">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A125">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C125">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A145:A148">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>(#REF!=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:A156">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>(#REF!=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:A167">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>(#REF!=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161:A165">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24340" windowHeight="18960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31340" windowHeight="18960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="159">
   <si>
     <t>HITO 1</t>
   </si>
@@ -480,6 +480,27 @@
   </si>
   <si>
     <t>STOYCHO Y CATH</t>
+  </si>
+  <si>
+    <t>Cambiar coordenadas del mundo (ejeY -&gt; ejeZ)</t>
+  </si>
+  <si>
+    <t>Gaspar</t>
+  </si>
+  <si>
+    <t>Stoycho</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Nerea</t>
+  </si>
+  <si>
+    <t>HORAS</t>
   </si>
 </sst>
 </file>
@@ -489,7 +510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,8 +581,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +701,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -880,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -980,7 +1013,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1007,7 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1031,153 +1062,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b/>
@@ -1817,16 +1740,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,7 +2502,7 @@
       <c r="A69" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="6">
@@ -2603,7 +2527,7 @@
       <c r="A71" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="76" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="60">
@@ -2617,7 +2541,7 @@
       <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="74" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="60">
@@ -2628,7 +2552,7 @@
       <c r="A73" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="75" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="60">
@@ -2639,7 +2563,7 @@
       <c r="A74" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="75" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="60">
@@ -2664,7 +2588,7 @@
       <c r="A76" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="45">
@@ -2675,7 +2599,7 @@
       <c r="A77" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C77" s="45">
@@ -2686,7 +2610,7 @@
       <c r="A78" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="74" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="45">
@@ -2697,7 +2621,7 @@
       <c r="A79" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="74" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="45">
@@ -2708,7 +2632,7 @@
       <c r="A80" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="74" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="45">
@@ -2730,7 +2654,7 @@
       <c r="A82" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C82" s="62">
@@ -2741,7 +2665,7 @@
       <c r="A83" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C83" s="62">
@@ -3016,7 +2940,7 @@
       <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="75" t="s">
+      <c r="B108" s="74" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="42">
@@ -3071,7 +2995,7 @@
       <c r="A113" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="75" t="s">
+      <c r="B113" s="74" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="42">
@@ -3090,13 +3014,13 @@
       </c>
     </row>
     <row r="115" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="70"/>
-      <c r="B115" s="71"/>
-      <c r="C115" s="72"/>
+      <c r="A115" s="69"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="71"/>
       <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="74" t="s">
+      <c r="A116" s="73" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="55"/>
@@ -3106,7 +3030,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="74" t="s">
+      <c r="A117" s="73" t="s">
         <v>134</v>
       </c>
       <c r="B117" s="55"/>
@@ -3116,7 +3040,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="74" t="s">
+      <c r="A118" s="73" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="55"/>
@@ -3126,7 +3050,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="74" t="s">
+      <c r="A119" s="73" t="s">
         <v>138</v>
       </c>
       <c r="B119" s="55"/>
@@ -3136,7 +3060,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="74" t="s">
+      <c r="A120" s="73" t="s">
         <v>139</v>
       </c>
       <c r="B120" s="55"/>
@@ -3146,7 +3070,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="74" t="s">
+      <c r="A121" s="73" t="s">
         <v>140</v>
       </c>
       <c r="B121" s="55"/>
@@ -3156,7 +3080,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="74" t="s">
+      <c r="A122" s="73" t="s">
         <v>141</v>
       </c>
       <c r="B122" s="55"/>
@@ -3169,7 +3093,7 @@
       <c r="A123" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B123" s="84" t="s">
+      <c r="B123" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C123" s="61">
@@ -3183,7 +3107,7 @@
       <c r="A124" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="85" t="s">
+      <c r="B124" s="84" t="s">
         <v>54</v>
       </c>
       <c r="C124" s="62">
@@ -3197,7 +3121,7 @@
       <c r="A125" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="83" t="s">
+      <c r="B125" s="82" t="s">
         <v>38</v>
       </c>
       <c r="C125" s="11">
@@ -3208,36 +3132,36 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="82" t="s">
+      <c r="A126" s="81" t="s">
         <v>150</v>
       </c>
       <c r="B126" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C126" s="81"/>
+      <c r="C126" s="80"/>
       <c r="D126" s="50" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="87"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="88"/>
+      <c r="A127" s="85"/>
+      <c r="B127" s="86"/>
+      <c r="C127" s="86"/>
       <c r="D127" s="50"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="80"/>
-      <c r="B128" s="81"/>
-      <c r="C128" s="81"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="79"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="80"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
@@ -3247,8 +3171,12 @@
       <c r="C130" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="44" t="s">
         <v>106</v>
       </c>
@@ -3258,33 +3186,40 @@
       <c r="C131" s="46">
         <v>1.3636363636363635</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="44" t="s">
+      <c r="D131" s="89"/>
+      <c r="E131" s="89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="C132" s="46">
+      <c r="C132" s="111">
         <v>1.3636363636363635</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+      <c r="D132" s="88"/>
+      <c r="E132" s="88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="B133" s="43" t="s">
+      <c r="B133" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="116">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" s="94"/>
+      <c r="E133" s="94"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>109</v>
       </c>
@@ -3294,8 +3229,10 @@
       <c r="C134" s="43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" s="89"/>
+      <c r="E134" s="89"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>29</v>
       </c>
@@ -3305,8 +3242,10 @@
       <c r="C135" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>110</v>
       </c>
@@ -3316,8 +3255,10 @@
       <c r="C136" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>111</v>
       </c>
@@ -3327,8 +3268,10 @@
       <c r="C137" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" s="89"/>
+      <c r="E137" s="89"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>112</v>
       </c>
@@ -3338,52 +3281,66 @@
       <c r="C138" s="43">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+    </row>
+    <row r="139" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="43" t="s">
+      <c r="B139" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="43">
+      <c r="C139" s="113">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+    </row>
+    <row r="140" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="118">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+      <c r="D140" s="94"/>
+      <c r="E140" s="94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="114">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="12" t="s">
+      <c r="D141" s="88"/>
+      <c r="E141" s="88">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="B142" s="40" t="s">
+      <c r="B142" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C142" s="120">
         <v>25</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D142" s="94"/>
+      <c r="E142" s="94"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>117</v>
       </c>
@@ -3393,210 +3350,351 @@
       <c r="C143" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="74" t="s">
+      <c r="D143" s="89"/>
+      <c r="E143" s="89"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="73" t="s">
         <v>137</v>
       </c>
       <c r="B145" s="63"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="50"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="74" t="s">
+      <c r="C145" s="89"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="87">
+        <v>10</v>
+      </c>
+      <c r="F145" s="50"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="73" t="s">
         <v>133</v>
       </c>
       <c r="B146" s="63"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="50"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="73" t="s">
+      <c r="C146" s="89"/>
+      <c r="D146" s="89"/>
+      <c r="E146" s="106">
+        <v>15</v>
+      </c>
+      <c r="F146" s="50"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="B147" s="86"/>
-      <c r="C147" s="69"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="99" t="s">
+      <c r="B147" s="101"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="97" t="s">
         <v>131</v>
       </c>
       <c r="B148" s="100"/>
-      <c r="C148" s="101"/>
-    </row>
-    <row r="149" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="99" t="s">
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="100"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="93"/>
-      <c r="C149" s="101"/>
-      <c r="D149" s="50"/>
-    </row>
-    <row r="150" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="102" t="s">
+      <c r="B150" s="91"/>
+      <c r="C150" s="88"/>
+      <c r="D150" s="88"/>
+      <c r="E150" s="108">
         <v>10</v>
       </c>
-      <c r="B150" s="103" t="s">
+      <c r="F150" s="50"/>
+    </row>
+    <row r="151" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C150" s="104"/>
-      <c r="D150" s="50"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="56" t="s">
+      <c r="C151" s="94"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="109">
+        <v>28</v>
+      </c>
+      <c r="F151" s="50"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B151" s="51" t="s">
+      <c r="B152" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C151" s="89"/>
-      <c r="D151" s="50"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B152" s="51" t="s">
-        <v>54</v>
-      </c>
       <c r="C152" s="89"/>
-      <c r="D152" s="50"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D152" s="89"/>
+      <c r="E152" s="87">
+        <v>50</v>
+      </c>
+      <c r="F152" s="50"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B153" s="75" t="s">
+      <c r="B153" s="74" t="s">
         <v>54</v>
       </c>
       <c r="C153" s="89"/>
-      <c r="D153" s="50"/>
-    </row>
-    <row r="154" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="97" t="s">
+      <c r="D153" s="89"/>
+      <c r="E153" s="87">
+        <v>25</v>
+      </c>
+      <c r="F153" s="50"/>
+    </row>
+    <row r="154" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="105" t="s">
+      <c r="B154" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C154" s="90"/>
-    </row>
-    <row r="155" spans="1:4" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="98" t="s">
+      <c r="C154" s="88"/>
+      <c r="D154" s="88"/>
+      <c r="E154" s="88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B155" s="95" t="s">
+      <c r="B155" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C155" s="96"/>
-    </row>
-    <row r="156" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C155" s="94"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B156" s="75" t="s">
+      <c r="B156" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="91"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="89"/>
+      <c r="D156" s="89"/>
+      <c r="E156" s="89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B157" s="75" t="s">
+      <c r="B157" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C157" s="91"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C157" s="89"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="89">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="75" t="s">
+      <c r="B158" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C158" s="91"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C158" s="89"/>
+      <c r="D158" s="89"/>
+      <c r="E158" s="89">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B159" s="75" t="s">
+      <c r="B159" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C159" s="91"/>
-    </row>
-    <row r="160" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="92" t="s">
+      <c r="C159" s="89"/>
+      <c r="D159" s="89"/>
+      <c r="E159" s="89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B160" s="93" t="s">
+      <c r="B160" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C160" s="90"/>
-    </row>
-    <row r="161" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="94" t="s">
+      <c r="C160" s="88"/>
+      <c r="D160" s="88"/>
+      <c r="E160" s="88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B161" s="95" t="s">
+      <c r="B161" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C161" s="96"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="94"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B162" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C162" s="91"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="89"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B163" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="91"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="89"/>
+      <c r="D163" s="89"/>
+      <c r="E163" s="89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B164" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C164" s="91"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="89"/>
+      <c r="D164" s="89"/>
+      <c r="E164" s="89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B165" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C165" s="91"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="89"/>
+      <c r="D165" s="89"/>
+      <c r="E165" s="89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B166" s="75" t="s">
+      <c r="B166" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C166" s="91"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C166" s="89"/>
+      <c r="D166" s="89"/>
+      <c r="E166" s="89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B167" s="52" t="s">
+      <c r="B167" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C167" s="91"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="89"/>
+      <c r="E167" s="89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172">
+        <f>SUMIF($F$131:$F$167,A172,$E$131:$E$167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ref="B173:B176" si="0">SUMIF($F$131:$F$167,A173,$E$131:$E$167)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A35:A36 A157:A158">
@@ -3679,7 +3777,7 @@
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A145:A148">
+  <conditionalFormatting sqref="A145:A149">
     <cfRule type="expression" dxfId="4" priority="8">
       <formula>(#REF!=2)</formula>
     </cfRule>
@@ -3689,7 +3787,7 @@
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
+  <conditionalFormatting sqref="A150">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>(#REF!=2)</formula>
     </cfRule>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="164">
   <si>
     <t>HITO 1</t>
   </si>
@@ -416,12 +416,6 @@
     <t>RECURSO</t>
   </si>
   <si>
-    <t>Hacer nuestro propio widget (CEGUI) - menú</t>
-  </si>
-  <si>
-    <t>Animaciones HUD (CEGUI)</t>
-  </si>
-  <si>
     <t>Mecánica matar enemigos</t>
   </si>
   <si>
@@ -501,6 +495,27 @@
   </si>
   <si>
     <t>HORAS</t>
+  </si>
+  <si>
+    <t>Implementar combate de la IA</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>IA de rehen</t>
+  </si>
+  <si>
+    <t>Selección del personaje</t>
+  </si>
+  <si>
+    <t>Guardar y cargar partida</t>
+  </si>
+  <si>
+    <t>JUEGO EN UNITY</t>
+  </si>
+  <si>
+    <t>Interpolacion</t>
   </si>
 </sst>
 </file>
@@ -913,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1016,9 +1031,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1065,13 +1077,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1096,11 +1106,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1740,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="170" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2502,7 +2558,7 @@
       <c r="A69" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="75" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="6">
@@ -2520,28 +2576,28 @@
         <v>5.45</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="75" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="60">
         <v>4.55</v>
       </c>
       <c r="D71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="73" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="60">
@@ -2552,7 +2608,7 @@
       <c r="A73" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="74" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="60">
@@ -2563,7 +2619,7 @@
       <c r="A74" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="75" t="s">
+      <c r="B74" s="74" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="60">
@@ -2581,14 +2637,14 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="75" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="45">
@@ -2599,7 +2655,7 @@
       <c r="A77" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="76" t="s">
+      <c r="B77" s="75" t="s">
         <v>54</v>
       </c>
       <c r="C77" s="45">
@@ -2610,7 +2666,7 @@
       <c r="A78" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="74" t="s">
+      <c r="B78" s="73" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="45">
@@ -2621,7 +2677,7 @@
       <c r="A79" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="74" t="s">
+      <c r="B79" s="73" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="45">
@@ -2632,7 +2688,7 @@
       <c r="A80" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="74" t="s">
+      <c r="B80" s="73" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="45">
@@ -2654,7 +2710,7 @@
       <c r="A82" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="76" t="s">
         <v>54</v>
       </c>
       <c r="C82" s="62">
@@ -2665,7 +2721,7 @@
       <c r="A83" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C83" s="62">
@@ -2940,7 +2996,7 @@
       <c r="A108" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="73" t="s">
         <v>46</v>
       </c>
       <c r="C108" s="42">
@@ -2995,7 +3051,7 @@
       <c r="A113" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="B113" s="73" t="s">
         <v>46</v>
       </c>
       <c r="C113" s="42">
@@ -3020,148 +3076,148 @@
       <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="73" t="s">
-        <v>132</v>
+      <c r="A116" s="72" t="s">
+        <v>130</v>
       </c>
       <c r="B116" s="55"/>
       <c r="C116" s="64"/>
       <c r="D116" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="73" t="s">
-        <v>134</v>
+      <c r="A117" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="B117" s="55"/>
       <c r="C117" s="64"/>
       <c r="D117" s="50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="73" t="s">
-        <v>136</v>
+      <c r="A118" s="72" t="s">
+        <v>134</v>
       </c>
       <c r="B118" s="55"/>
       <c r="C118" s="64"/>
       <c r="D118" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="73" t="s">
-        <v>138</v>
+      <c r="A119" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="B119" s="55"/>
       <c r="C119" s="65"/>
       <c r="D119" s="50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="73" t="s">
-        <v>139</v>
+      <c r="A120" s="72" t="s">
+        <v>137</v>
       </c>
       <c r="B120" s="55"/>
       <c r="C120" s="65"/>
       <c r="D120" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="73" t="s">
-        <v>140</v>
+      <c r="A121" s="72" t="s">
+        <v>138</v>
       </c>
       <c r="B121" s="55"/>
       <c r="C121" s="65"/>
       <c r="D121" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="73" t="s">
-        <v>141</v>
+      <c r="A122" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="B122" s="55"/>
       <c r="C122" s="65"/>
       <c r="D122" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B123" s="83" t="s">
+      <c r="B123" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C123" s="61">
         <v>2.27</v>
       </c>
       <c r="D123" s="50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="84" t="s">
+      <c r="B124" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C124" s="62">
         <v>2.27</v>
       </c>
       <c r="D124" s="50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B125" s="82" t="s">
+      <c r="B125" s="81" t="s">
         <v>38</v>
       </c>
       <c r="C125" s="11">
         <v>6.5</v>
       </c>
       <c r="D125" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="81" t="s">
-        <v>150</v>
+      <c r="A126" s="80" t="s">
+        <v>148</v>
       </c>
       <c r="B126" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C126" s="80"/>
+      <c r="C126" s="79"/>
       <c r="D126" s="50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="85"/>
-      <c r="B127" s="86"/>
-      <c r="C127" s="86"/>
+      <c r="A127" s="84"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
       <c r="D127" s="50"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="79"/>
-      <c r="B128" s="80"/>
-      <c r="C128" s="80"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="78"/>
+      <c r="B128" s="79"/>
+      <c r="C128" s="79"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
@@ -3173,10 +3229,10 @@
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="44" t="s">
         <v>106</v>
       </c>
@@ -3186,40 +3242,49 @@
       <c r="C131" s="46">
         <v>1.3636363636363635</v>
       </c>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89">
+      <c r="D131" s="88"/>
+      <c r="E131" s="88">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="90" t="s">
+      <c r="F131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="B132" s="110" t="s">
+      <c r="B132" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="C132" s="111">
+      <c r="C132" s="108">
         <v>1.3636363636363635</v>
       </c>
-      <c r="D132" s="88"/>
-      <c r="E132" s="88">
+      <c r="D132" s="87"/>
+      <c r="E132" s="87">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="116" t="s">
+      <c r="F132" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="B133" s="117" t="s">
+      <c r="B133" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="116">
+      <c r="C133" s="113">
         <v>0.5</v>
       </c>
-      <c r="D133" s="94"/>
-      <c r="E133" s="94"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="93"/>
+      <c r="E133" s="93"/>
+      <c r="F133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>109</v>
       </c>
@@ -3229,10 +3294,13 @@
       <c r="C134" s="43">
         <v>0.5</v>
       </c>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="88"/>
+      <c r="E134" s="88"/>
+      <c r="F134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>29</v>
       </c>
@@ -3242,10 +3310,13 @@
       <c r="C135" s="43">
         <v>1</v>
       </c>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="88"/>
+      <c r="E135" s="88"/>
+      <c r="F135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>110</v>
       </c>
@@ -3255,10 +3326,13 @@
       <c r="C136" s="43">
         <v>1</v>
       </c>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="88"/>
+      <c r="E136" s="88"/>
+      <c r="F136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>111</v>
       </c>
@@ -3268,10 +3342,13 @@
       <c r="C137" s="43">
         <v>1</v>
       </c>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="F137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>112</v>
       </c>
@@ -3281,66 +3358,83 @@
       <c r="C138" s="43">
         <v>0.75</v>
       </c>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-    </row>
-    <row r="139" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="112" t="s">
+      <c r="D138" s="88"/>
+      <c r="E138" s="88"/>
+      <c r="F138" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="113" t="s">
+      <c r="B139" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="113">
+      <c r="C139" s="110">
         <v>0.75</v>
       </c>
-      <c r="D139" s="88"/>
-      <c r="E139" s="88"/>
-    </row>
-    <row r="140" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="118" t="s">
+      <c r="D139" s="87"/>
+      <c r="E139" s="87"/>
+      <c r="F139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="119" t="s">
+      <c r="B140" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="C140" s="118">
+      <c r="C140" s="115">
         <v>4.2</v>
       </c>
-      <c r="D140" s="94"/>
-      <c r="E140" s="94">
+      <c r="D140" s="93"/>
+      <c r="E140" s="93">
         <v>40</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="114" t="s">
+      <c r="F140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="B141" s="115" t="s">
+      <c r="B141" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="C141" s="114">
+      <c r="C141" s="111">
         <v>17.5</v>
       </c>
-      <c r="D141" s="88"/>
-      <c r="E141" s="88">
+      <c r="D141" s="87"/>
+      <c r="E141" s="87">
         <v>170</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="120" t="s">
+      <c r="F141" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="B142" s="121" t="s">
+      <c r="B142" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="120">
+      <c r="C142" s="117">
         <v>25</v>
       </c>
-      <c r="D142" s="94"/>
-      <c r="E142" s="94"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D142" s="93"/>
+      <c r="E142" s="93">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>117</v>
       </c>
@@ -3350,455 +3444,740 @@
       <c r="C143" s="12">
         <v>5</v>
       </c>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="73" t="s">
-        <v>137</v>
+      <c r="D143" s="88"/>
+      <c r="E143" s="88"/>
+      <c r="F143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="B145" s="63"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="87">
+      <c r="C145" s="88"/>
+      <c r="D145" s="121">
+        <v>1</v>
+      </c>
+      <c r="E145" s="86">
         <v>10</v>
       </c>
-      <c r="F145" s="50"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="73" t="s">
+      <c r="F145" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B146" s="63"/>
+      <c r="C146" s="88"/>
+      <c r="D146" s="121">
+        <v>1</v>
+      </c>
+      <c r="E146" s="104">
+        <v>15</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" s="124"/>
+      <c r="C147" s="88"/>
+      <c r="D147" s="121">
+        <v>1</v>
+      </c>
+      <c r="E147" s="105">
+        <v>10</v>
+      </c>
+      <c r="F147" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" s="124"/>
+      <c r="C148" s="88"/>
+      <c r="D148" s="121">
+        <v>1</v>
+      </c>
+      <c r="E148" s="105">
+        <v>10</v>
+      </c>
+      <c r="F148" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="99"/>
+      <c r="C149" s="88"/>
+      <c r="D149" s="121">
+        <v>1</v>
+      </c>
+      <c r="E149" s="105">
+        <v>10</v>
+      </c>
+      <c r="F149" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="124"/>
+      <c r="C150" s="87"/>
+      <c r="D150" s="122">
+        <v>1</v>
+      </c>
+      <c r="E150" s="105">
+        <v>20</v>
+      </c>
+      <c r="F150" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="124"/>
+      <c r="C151" s="87"/>
+      <c r="D151" s="122"/>
+      <c r="E151" s="105">
+        <v>5</v>
+      </c>
+      <c r="F151" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="124"/>
+      <c r="C152" s="87"/>
+      <c r="D152" s="122">
+        <v>1</v>
+      </c>
+      <c r="E152" s="105">
+        <v>30</v>
+      </c>
+      <c r="F152" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153" s="99"/>
+      <c r="C153" s="87"/>
+      <c r="D153" s="122"/>
+      <c r="E153" s="105">
+        <v>30</v>
+      </c>
+      <c r="F153" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="99"/>
+      <c r="C154" s="87"/>
+      <c r="D154" s="122"/>
+      <c r="E154" s="105">
+        <v>30</v>
+      </c>
+      <c r="F154" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="89"/>
-      <c r="D146" s="89"/>
-      <c r="E146" s="106">
+      <c r="B155" s="125"/>
+      <c r="C155" s="87"/>
+      <c r="D155" s="122">
+        <v>1</v>
+      </c>
+      <c r="E155" s="105">
+        <v>10</v>
+      </c>
+      <c r="F155" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="93"/>
+      <c r="D156" s="123">
+        <v>1</v>
+      </c>
+      <c r="E156" s="106">
+        <v>28</v>
+      </c>
+      <c r="F156" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C157" s="88"/>
+      <c r="D157" s="121">
+        <v>1</v>
+      </c>
+      <c r="E157" s="86">
+        <v>50</v>
+      </c>
+      <c r="F157" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158" s="88"/>
+      <c r="D158" s="121">
+        <v>1</v>
+      </c>
+      <c r="E158" s="86">
+        <v>30</v>
+      </c>
+      <c r="F158" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B159" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="88"/>
+      <c r="D159" s="121">
+        <v>1</v>
+      </c>
+      <c r="E159" s="86">
+        <v>25</v>
+      </c>
+      <c r="F159" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="87"/>
+      <c r="D160" s="122">
+        <v>1</v>
+      </c>
+      <c r="E160" s="87">
         <v>15</v>
       </c>
-      <c r="F146" s="50"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B147" s="101"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="107">
+      <c r="F160" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B161" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" s="93"/>
+      <c r="D161" s="123">
+        <v>1</v>
+      </c>
+      <c r="E161" s="93">
+        <v>15</v>
+      </c>
+      <c r="F161" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A162" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B162" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="88"/>
+      <c r="D162" s="121">
+        <v>1</v>
+      </c>
+      <c r="E162" s="88">
+        <v>20</v>
+      </c>
+      <c r="F162" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B163" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="88"/>
+      <c r="D163" s="121">
+        <v>1</v>
+      </c>
+      <c r="E163" s="88">
+        <v>45</v>
+      </c>
+      <c r="F163" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B164" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="88"/>
+      <c r="D164" s="121">
+        <v>1</v>
+      </c>
+      <c r="E164" s="88">
+        <v>45</v>
+      </c>
+      <c r="F164" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B165" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="88"/>
+      <c r="D165" s="121">
+        <v>1</v>
+      </c>
+      <c r="E165" s="88">
+        <v>20</v>
+      </c>
+      <c r="F165" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B166" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="87"/>
+      <c r="D166" s="122">
+        <v>1</v>
+      </c>
+      <c r="E166" s="87">
+        <v>15</v>
+      </c>
+      <c r="F166" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" s="93">
+        <v>100</v>
+      </c>
+      <c r="D167" s="123">
+        <v>0.6</v>
+      </c>
+      <c r="E167" s="88">
+        <f>PRODUCT(C167,D167)</f>
+        <v>60</v>
+      </c>
+      <c r="F167" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" s="88">
+        <v>50</v>
+      </c>
+      <c r="D168" s="121">
+        <v>1</v>
+      </c>
+      <c r="E168" s="88">
+        <f t="shared" ref="E168:E174" si="0">PRODUCT(C168,D168)</f>
+        <v>50</v>
+      </c>
+      <c r="F168" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B169" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="88">
         <v>25</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="B148" s="100"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="108">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="97" t="s">
+      <c r="D169" s="121">
+        <v>0.9</v>
+      </c>
+      <c r="E169" s="88">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="F169" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B170" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" s="88">
+        <v>50</v>
+      </c>
+      <c r="D170" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="E170" s="88">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B171" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C171" s="88">
+        <v>100</v>
+      </c>
+      <c r="D171" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="E171" s="88">
+        <f t="shared" ref="E171" si="1">PRODUCT(C171,D171)</f>
+        <v>50</v>
+      </c>
+      <c r="F171" t="s">
+        <v>155</v>
+      </c>
+      <c r="G171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B172" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="88">
+        <v>100</v>
+      </c>
+      <c r="D172" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="E172" s="88">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F172" t="s">
+        <v>153</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B173" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="88">
+        <v>100</v>
+      </c>
+      <c r="D173" s="121">
+        <v>0.15</v>
+      </c>
+      <c r="E173" s="88">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>155</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B174" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" s="88">
+        <v>50</v>
+      </c>
+      <c r="D174" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="E174" s="88">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B179">
+        <f>SUMIF($F$131:$F$174,A179,$E$131:$E$174)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="100"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="B150" s="91"/>
-      <c r="C150" s="88"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="108">
-        <v>10</v>
-      </c>
-      <c r="F150" s="50"/>
-    </row>
-    <row r="151" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="C151" s="94"/>
-      <c r="D151" s="94"/>
-      <c r="E151" s="109">
-        <v>28</v>
-      </c>
-      <c r="F151" s="50"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B152" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="87">
-        <v>50</v>
-      </c>
-      <c r="F152" s="50"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B153" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="87">
-        <v>25</v>
-      </c>
-      <c r="F153" s="50"/>
-    </row>
-    <row r="154" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B154" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="88"/>
-      <c r="D154" s="88"/>
-      <c r="E154" s="88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B155" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="C155" s="94"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="94">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A156" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B156" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C156" s="89"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B157" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C157" s="89"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B158" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C158" s="89"/>
-      <c r="D158" s="89"/>
-      <c r="E158" s="89">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B159" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="89"/>
-      <c r="D159" s="89"/>
-      <c r="E159" s="89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="B160" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
-      <c r="E160" s="88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B161" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="C161" s="94"/>
-      <c r="D161" s="94"/>
-      <c r="E161" s="94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B162" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C162" s="89"/>
-      <c r="D162" s="89"/>
-      <c r="E162" s="89">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B163" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C163" s="89"/>
-      <c r="D163" s="89"/>
-      <c r="E163" s="89">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B164" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C164" s="89"/>
-      <c r="D164" s="89"/>
-      <c r="E164" s="89">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B165" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C165" s="89"/>
-      <c r="D165" s="89"/>
-      <c r="E165" s="89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B166" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="C166" s="89"/>
-      <c r="D166" s="89"/>
-      <c r="E166" s="89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B167" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C167" s="89"/>
-      <c r="D167" s="89"/>
-      <c r="E167" s="89">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="123" t="s">
+      <c r="B180">
+        <f>SUMIF($F$131:$F$174,A180,$E$131:$E$174)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="B172">
-        <f>SUMIF($F$131:$F$167,A172,$E$131:$E$167)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="123" t="s">
+      <c r="B181">
+        <f>SUMIF($F$131:$F$174,A181,$E$131:$E$174)</f>
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="B173">
-        <f t="shared" ref="B173:B176" si="0">SUMIF($F$131:$F$167,A173,$E$131:$E$167)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="123" t="s">
+      <c r="B182">
+        <f>SUMIF($F$131:$F$174,A182,$E$131:$E$174)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="B174">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="B175">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="123" t="s">
-        <v>157</v>
-      </c>
-      <c r="B176">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B183">
+        <f>SUMIF($F$131:$F$174,A183,$E$131:$E$174)</f>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A35:A36 A157:A158">
-    <cfRule type="expression" dxfId="20" priority="26">
+  <conditionalFormatting sqref="A35:A36 A163:A164">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39 A116:A122">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="18" priority="25">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A41">
-    <cfRule type="expression" dxfId="17" priority="23">
+  <conditionalFormatting sqref="A40:A41 A145:A154">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A105">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C107">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A112">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A115">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140:A141">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140:C141">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:A143">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>(#REF!=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>(#REF!=6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A145:A149">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="A161:A162">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>(#REF!=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A155:A156">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>(#REF!=6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150">
-    <cfRule type="expression" dxfId="2" priority="5">
+  <conditionalFormatting sqref="A173:A174">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A166:A167">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A167:A170 A172">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A161:A165">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="A171">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stoycho/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gasparrodriguezvalero/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31340" windowHeight="18960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="165">
   <si>
     <t>HITO 1</t>
   </si>
@@ -516,6 +519,9 @@
   </si>
   <si>
     <t>Interpolacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bounding Box </t>
   </si>
 </sst>
 </file>
@@ -928,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1118,45 +1124,14 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <b/>
@@ -1796,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="170" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3737,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A161" s="95" t="s">
         <v>86</v>
       </c>
@@ -3755,7 +3730,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="s">
         <v>87</v>
       </c>
@@ -3773,7 +3748,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="s">
         <v>93</v>
       </c>
@@ -3791,7 +3766,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>95</v>
       </c>
@@ -3808,8 +3783,14 @@
       <c r="F164" s="50" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="I164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="44" t="s">
         <v>74</v>
       </c>
@@ -3827,7 +3808,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="89" t="s">
         <v>75</v>
       </c>
@@ -3845,7 +3826,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A167" s="91" t="s">
         <v>98</v>
       </c>
@@ -3869,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
         <v>99</v>
       </c>
@@ -3890,7 +3871,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
         <v>100</v>
       </c>
@@ -3914,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
         <v>101</v>
       </c>
@@ -3932,7 +3913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
         <v>102</v>
       </c>
@@ -3956,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
         <v>102</v>
       </c>
@@ -3980,7 +3961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
         <v>103</v>
       </c>
@@ -4004,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
         <v>104</v>
       </c>

--- a/Documentos/Lista_entregables.xlsx
+++ b/Documentos/Lista_entregables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gasparrodriguezvalero/GitHub/Vesper/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Catherine/Documents/GitHub/Vesper/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="177">
   <si>
     <t>HITO 1</t>
   </si>
@@ -522,6 +522,42 @@
   </si>
   <si>
     <t xml:space="preserve">Bounding Box </t>
+  </si>
+  <si>
+    <t>Diseño de los mapas (Colocar los objetos en Tiled)</t>
+  </si>
+  <si>
+    <t>Arreglar puerta y llave en release</t>
+  </si>
+  <si>
+    <t>Disparos distintos según arma</t>
+  </si>
+  <si>
+    <t>Menús en general (nivel en la pantalla seleccionar y meter pantallas finales, créditos)</t>
+  </si>
+  <si>
+    <t>HUD (Llaves + mini mapa)</t>
+  </si>
+  <si>
+    <t>Balas</t>
+  </si>
+  <si>
+    <t>Modelado</t>
+  </si>
+  <si>
+    <t>Texturizado</t>
+  </si>
+  <si>
+    <t>Animaciones</t>
+  </si>
+  <si>
+    <t>Sombras</t>
+  </si>
+  <si>
+    <t>Shadder Cartoon</t>
+  </si>
+  <si>
+    <t>Sonido/Música</t>
   </si>
 </sst>
 </file>
@@ -934,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1127,6 +1163,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1771,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="125" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4006,54 +4047,127 @@
         <v>154</v>
       </c>
     </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="130"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="128"/>
+      <c r="D175" s="129"/>
+      <c r="E175" s="128"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B176" s="119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177">
+        <f>SUMIF($F$131:$F$174,A177,$E$131:$E$174)</f>
+        <v>198</v>
+      </c>
+    </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="119" t="s">
-        <v>156</v>
+      <c r="A178" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178">
+        <f>SUMIF($F$131:$F$174,A178,$E$131:$E$174)</f>
+        <v>370</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="120" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B179">
         <f>SUMIF($F$131:$F$174,A179,$E$131:$E$174)</f>
-        <v>198</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="120" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B180">
         <f>SUMIF($F$131:$F$174,A180,$E$131:$E$174)</f>
-        <v>370</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="120" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B181">
         <f>SUMIF($F$131:$F$174,A181,$E$131:$E$174)</f>
-        <v>132.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="120" t="s">
-        <v>154</v>
-      </c>
-      <c r="B182">
-        <f>SUMIF($F$131:$F$174,A182,$E$131:$E$174)</f>
+      <c r="A182" s="120"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="120"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="120" t="s">
-        <v>155</v>
-      </c>
-      <c r="B183">
-        <f>SUMIF($F$131:$F$174,A183,$E$131:$E$174)</f>
-        <v>140</v>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4261,7 @@
       <formula>(#REF!=2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A174">
+  <conditionalFormatting sqref="A173:A175">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>(#REF!=2)</formula>
     </cfRule>
